--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6671400</v>
+        <v>12950100</v>
       </c>
       <c r="E8" s="3">
-        <v>11978100</v>
+        <v>6729800</v>
       </c>
       <c r="F8" s="3">
-        <v>6238800</v>
+        <v>12082800</v>
       </c>
       <c r="G8" s="3">
-        <v>12127400</v>
+        <v>6293400</v>
       </c>
       <c r="H8" s="3">
-        <v>6226800</v>
+        <v>12233400</v>
       </c>
       <c r="I8" s="3">
-        <v>11105200</v>
+        <v>6281200</v>
       </c>
       <c r="J8" s="3">
+        <v>11202300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5748000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11548600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5960000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11291700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6002600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12482300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6398400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10254200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10339900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9458200</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>11036100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10343900</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10430300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9540900</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>9768000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>9561600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>10484500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1723900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1787500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1647000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1913900</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1738900</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1803200</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1661400</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1780600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1730100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1997800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,23 +1040,26 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>12900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>11449900</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11492800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10618800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>12264500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11550100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11593200</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10711600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>10927100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>10615100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>11807400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>528100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>634600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>486400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>685600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>532800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>640200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>621600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>676600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>674900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19800</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>12300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>5900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>744400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>846600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>675300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>751000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>854000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>681200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>809000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>833600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>845100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>68100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>64800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>61500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>68700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>65300</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>60600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>51600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>56300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>479800</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>577500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>437000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>615800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>484000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>582600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>573300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>623800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>624500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>138300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>165800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>125200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>139600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>167200</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>147000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>191900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>201900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>341500</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>411800</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>311800</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>437500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>344500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>415400</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>426400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>432000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>422600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>330500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>399700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>306300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>333400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>403200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>417400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>420700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>408500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-12300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-5900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>330500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>399700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>306300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>333400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>403200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>417400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>420700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>408500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>330500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>399700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>306300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>333400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>403200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>417400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>420700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>408500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1544900</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1674500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1428500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>1476400</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1558400</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1216200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1792900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1472000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>474300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>508400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>440300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>478500</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>512800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>444100</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>526200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>507100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>563400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5216600</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5755700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4718100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>6153800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5262200</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5806000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4759400</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>5479800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>4751600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>6121400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>322800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>318400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>307400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>331200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>325600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>321200</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>314200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>288400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>327500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1238500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1149600</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1160600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1249400</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1159700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1088300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1027700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1014200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>8797200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9406600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8054900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>9525400</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8874100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9488800</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8125400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>8624700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>8367800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>9498500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1852300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1722800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>912400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1814200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1868500</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1737800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>920400</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>884100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>896500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>934400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>751000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>754300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>679700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>2313800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>757600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>760900</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>685600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>699000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>662000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>734800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7641000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7408200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6992100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>7828500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7707800</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7473000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7053200</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>7112300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>6528900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>7231800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>137300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>158100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>138300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>138500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>159500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>259200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>233400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>390900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>19178800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>19450000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>16777400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>21652500</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>19346400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>19620000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16924100</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>17579300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>16688500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>18790400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5371400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4970600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4635800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>5365200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5418400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5014100</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4676300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>4558600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>4435200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>4918300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>238300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1382400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>491900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1177400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>240300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>496200</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1318300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>601400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>845100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3445500</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3589400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3241300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>3807900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3475600</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3620700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3269600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3474800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3287400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3824300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>9055200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9942400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8369000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>10350500</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9134400</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>10029300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8442100</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>9351800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>8324000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>9587700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5641000</v>
       </c>
       <c r="E61" s="3">
-        <v>4284400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>4321900</v>
       </c>
       <c r="G61" s="3">
-        <v>3924300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3958600</v>
       </c>
       <c r="I61" s="3">
-        <v>3883600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3917600</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3340200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3378300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3613000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1143000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>870700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>1068800</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>908200</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>878300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1098400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>980600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1348700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>14286100</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15060200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>13172700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>17113500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>14411000</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>15191800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13287900</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>13828500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>12721100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>14595200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4785100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4711500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4166900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>4460300</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4826900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4752700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4203300</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>3846200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>3876500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>3539000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4892700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4389800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3604700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>4538900</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4935500</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4428200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3636300</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>3750800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>3967400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4195200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>330500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>399700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>306300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>333400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>403200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>417400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>420700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>408500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>196500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>204200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>176800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>198300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>206000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>175000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>158200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>164300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1090300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>302000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1051900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>274700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1099800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>304600</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1061100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>196300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1082700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>113900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-216300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-222900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-198700</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-261400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-218200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-224800</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200500</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-166100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-185100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-169000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-394200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-494100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-197600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-397600</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-498400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-920000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-366900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-334500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,13 +4614,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-470700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4396,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-442500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-446400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4408,11 +4642,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-461100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4420,16 +4654,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-421400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-824600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>376600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-515000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-831800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>379900</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-519500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>139100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-157100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>542300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>79100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-119700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>79700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-23600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-202000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>48100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-143800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>263500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>219600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>265800</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-608100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>356800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>369800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12950100</v>
+        <v>4626300</v>
       </c>
       <c r="E8" s="3">
-        <v>6729800</v>
+        <v>13830500</v>
       </c>
       <c r="F8" s="3">
-        <v>12082800</v>
+        <v>7187300</v>
       </c>
       <c r="G8" s="3">
-        <v>6293400</v>
+        <v>12904300</v>
       </c>
       <c r="H8" s="3">
-        <v>12233400</v>
+        <v>6721200</v>
       </c>
       <c r="I8" s="3">
-        <v>6281200</v>
+        <v>13065100</v>
       </c>
       <c r="J8" s="3">
+        <v>6708200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11202300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5748000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11548600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5960000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11291700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6002600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12482300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6398400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>11036100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10343900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10430300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11786400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11047100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11139400</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>9540900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>9768000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>9561600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10484500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1913900</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1738900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1803200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2044100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1857200</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1925800</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1661400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1780600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1730100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1997800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1043,23 +1063,26 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>12900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>12264500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11550100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11593200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13098300</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12335300</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12381400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>10711600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>10927100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>10615100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>11807400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>685600</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>532800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>640200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>732200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>569000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>683700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>490700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>621600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>676600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>674900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>8900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>12200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>12300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1060000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>751000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>854000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>802000</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>912000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>681200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>809000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>833600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>845100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>78600</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>68700</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>65300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>73300</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>62000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>60600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>51600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>56300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>615800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>484000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>582600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>657700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>516900</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>622200</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>440800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>573300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>623800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>624500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>178300</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>139600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>167200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>190400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>149000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>178600</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>126300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>147000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>191900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>201900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>437500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>344500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>415400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>467200</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>367900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>443600</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>314600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>426400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>432000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>422600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>418700</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>333400</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>403200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>356100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>430600</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>309000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>417400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>420700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>408500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-12300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>418700</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>333400</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>403200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>356100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>430600</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>309000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>417400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>420700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>408500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>418700</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>333400</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>403200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>356100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>430600</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>309000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>417400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>420700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>408500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>1476400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1558400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1689100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1576800</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1664300</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1803900</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>1441000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1216200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1792900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1472000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>456300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>478500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>512800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>487400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>511000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>547700</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>444100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>526200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>507100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>563400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>6153800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5262200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5806000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6572200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5620000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6200800</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>4759400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>5479800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>4751600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6121400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>331200</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>325600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>321200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>353700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>347800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>343000</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>310100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>314200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>288400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>327500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1107600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1249400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1159700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1182900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1334300</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1170700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1088300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1027700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1014200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>9525400</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>8874100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9488800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10172900</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>9477400</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10133900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>8125400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>8624700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>8367800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9498500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1814200</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1868500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1737800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1937600</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1995600</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1856000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>920400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>884100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>896500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>934400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>2313800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>757600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>760900</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2471100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>809100</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>812700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>685600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>699000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>662000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>734800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>7828500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7707800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7473000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8360700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8231800</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7981000</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>7053200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>7112300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>6528900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7231800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>170600</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>138500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>159500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>182200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>147900</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>170300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>139600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>259200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>233400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>390900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>21652500</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>19346400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>19620000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23124500</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>20661700</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20953900</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>16924100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>17579300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>16688500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>18790400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5365200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5418400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5014100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5730000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5786700</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5355000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>4676300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>4558600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>4435200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4918300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1177400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>240300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1394500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1257400</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>256700</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1489300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>496200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1318300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>601400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>845100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>3807900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3475600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3620700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4066800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3711900</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3866900</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>3269600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3474800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3287400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3824300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>10350500</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>9134400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>10029300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11054200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9755400</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10711200</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>8442100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>9351800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>8324000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>9587700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5641000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>6024500</v>
       </c>
       <c r="F61" s="3">
-        <v>4321900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>4615700</v>
       </c>
       <c r="H61" s="3">
-        <v>3958600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>4227700</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3917600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3340200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3378300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3613000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>1068800</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>908200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1153000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1141500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>970000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1231400</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>878300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1098400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>980600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1348700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>17113500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>14411000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15191800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18277000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>15390700</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16224700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>13287900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>13828500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>12721100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>14595200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>4460300</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4826900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4752700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4763500</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5155100</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5075800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4203300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>3846200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>3876500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3539000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>4538900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4935500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4428200</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4847500</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5271000</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4729200</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>3636300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>3750800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>3967400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4195200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>418700</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>333400</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>403200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>356100</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>430600</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>309000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>417400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>420700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>408500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>365500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>198300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>206000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>390400</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>211700</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>220000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>178300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>175000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>158200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>164300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>274700</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1099800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>304600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>293400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1174600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>325300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1061100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>196300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1082700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>113900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-261400</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-218200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-224800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-279200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-233000</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-240100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-166100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-185100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-169000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-340000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-397600</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-498400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-363200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-424700</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-532300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-920000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-366900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-334500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-470700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-502700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4633,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-446400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-476700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4645,11 +4879,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-461100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4657,16 +4891,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-421400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-831800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>379900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-888400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>405700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-519500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>139100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-157100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>542300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-44300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>79700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>85200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-120700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-23600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-202000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>48100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-125200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-145100</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>265800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-133700</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>283900</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>221500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-608100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>356800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>369800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4626300</v>
+        <v>9125800</v>
       </c>
       <c r="E8" s="3">
-        <v>13830500</v>
+        <v>4678300</v>
       </c>
       <c r="F8" s="3">
-        <v>7187300</v>
+        <v>13986000</v>
       </c>
       <c r="G8" s="3">
-        <v>12904300</v>
+        <v>7268100</v>
       </c>
       <c r="H8" s="3">
-        <v>6721200</v>
+        <v>13049300</v>
       </c>
       <c r="I8" s="3">
-        <v>13065100</v>
+        <v>6796800</v>
       </c>
       <c r="J8" s="3">
+        <v>13212000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6708200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11202300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5748000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11548600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5960000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11291700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6002600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12482300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6398400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11786400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11047100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11139400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>8227500</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11918900</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11171300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11264600</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>9540900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>9768000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>9561600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>10484500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2044100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1857200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1925800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>898300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1947400</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1661400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1780600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1730100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1997800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,34 +1045,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>491600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>45500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>40700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+        <v>27500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1066,46 +1086,49 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>12900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>23900</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+        <v>50200</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>51400</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>13098300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12335300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12381400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>9788500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13245500</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12474000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12520600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>10711600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>10927100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>10615100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>11807400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>732200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>569000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>683700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>-662700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>740400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>575400</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>691400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>490700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>621600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>676600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>674900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>21300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>12200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>12300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>5900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1132000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>802000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>912000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>-162700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1144800</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>811000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>922300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>681200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>809000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>833600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>845100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>84000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>73300</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>69800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>84900</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>74200</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>62000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>60600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>51600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>56300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>657700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>516900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>622200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>-929400</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>665100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>522700</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>629200</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>440800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>573300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>623800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>624500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>190400</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>149000</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>178600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>192600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>150700</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>126300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>147000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>191900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>201900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>467200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>367900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>443600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>-854100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>472500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>372000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>448600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>314600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>426400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>432000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>422600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>447100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>356100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>430600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>360100</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>309000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>417400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>420700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>408500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-12200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-12300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-5900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>447100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>356100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>430600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>360100</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>309000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>417400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>420700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>408500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>447100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>356100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>430600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>360100</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>309000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>417400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>420700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>408500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1576800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1664300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1803900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>2001200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1594500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1683100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1824200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1441000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1216200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1792900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1472000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>487400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>511000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>547700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>471300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>492800</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>516800</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>553800</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>444100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>526200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>507100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>563400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>6572200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5620000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6200800</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5003700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6646100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5683100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6270500</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>4759400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>5479800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>4751600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>6121400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>353700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>347800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>343000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>309800</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>357700</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>351700</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>346900</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>310100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>314200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>288400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>327500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1182900</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1334300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1238500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1332600</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1196200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1349300</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1252400</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1170700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1088300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1027700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1014200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>10172900</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>9477400</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10133900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>9118600</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10287300</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9584000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10247800</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>8125400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>8624700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>8367800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>9498500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1937600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1995600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1856000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1478500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1959400</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2018000</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1876800</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>920400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>884100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>896500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>934400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2471100</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>809100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>812700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>2257200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>818200</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>685600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>699000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>662000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>734800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>8360700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8231800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7981000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>7699900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8454700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8324400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8070800</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>7053200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>7112300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>6528900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>7231800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>182200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>147900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>170300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>184200</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>149500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>139600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>259200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>233400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>390900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>23124500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>20661700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>20953900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>20757700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>23384500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>20894000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21189500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>16924100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>17579300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>16688500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>18790400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5730000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5786700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5355000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>4808700</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5794400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5851800</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5415200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>4676300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>4558600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>4435200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4918300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1257400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>256700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1489300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>308600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1271600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>259600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>496200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1318300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>601400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>845100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4066800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3711900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3866900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>4147200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4112500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3753700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3910400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3269600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3474800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3287400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3824300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>11054200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9755400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10711200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>9264600</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11178500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9865100</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10831600</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>8442100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>9351800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>8324000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>9587700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7298000</v>
       </c>
       <c r="E61" s="3">
-        <v>6024500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>6092200</v>
       </c>
       <c r="G61" s="3">
-        <v>4615700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>4667600</v>
       </c>
       <c r="I61" s="3">
-        <v>4227700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>4275200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3917600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3340200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3378300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3613000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1141500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>970000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1231400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1154300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>980900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1245200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>878300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1098400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>980600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1348700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>18277000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>15390700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>16224700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>17458500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>18482500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>15563800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>16407100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>13287900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>13828500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>12721100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>14595200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4763500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5155100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>5075800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>3782400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4817100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>5213000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5132900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4203300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>3846200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>3876500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3539000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4847500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5271000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4729200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>3299100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4902000</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5330300</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4782400</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>3636300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>3750800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>3967400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4195200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>447100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>356100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>430600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-829000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>452200</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>360100</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>309000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>417400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>420700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>408500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>390400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>211700</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>220000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>394700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>214100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>222500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>178300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>175000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>158200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>164300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>293400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1174600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>325300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>456900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>296700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1187800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>329000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1061100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>196300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1082700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>113900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-279200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-233000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-240100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-193800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-282300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-235700</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-166100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-185100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-169000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-363200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-424700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-532300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-367200</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-429400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-538300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-199400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-920000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-366900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-334500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-502700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-508400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4870,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-476700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-482100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4882,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-461100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4894,16 +5128,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-421400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-888400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>405700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-898300</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>410300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-519500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>139100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-157100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>542300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>85200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-120700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-23600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-202000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>48100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-133700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-155000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>283900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-156700</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>287100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>221500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-608100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>356800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>369800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9125800</v>
+        <v>5213800</v>
       </c>
       <c r="E8" s="3">
-        <v>4678300</v>
+        <v>8974800</v>
       </c>
       <c r="F8" s="3">
-        <v>13986000</v>
+        <v>4600900</v>
       </c>
       <c r="G8" s="3">
-        <v>7268100</v>
+        <v>13754500</v>
       </c>
       <c r="H8" s="3">
-        <v>13049300</v>
+        <v>7147800</v>
       </c>
       <c r="I8" s="3">
-        <v>6796800</v>
+        <v>12833300</v>
       </c>
       <c r="J8" s="3">
+        <v>6684300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13212000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6708200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11202300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5748000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11548600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5960000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11291700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6002600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12482300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6398400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>8227500</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11918900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11171300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8091300</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>11721600</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10986400</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11264600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>9540900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>9768000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9561600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>10484500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>898300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2067000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1878000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>883500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2032800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1846900</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1947400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1661400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1780600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1730100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1997800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,37 +1064,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>491600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>40700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>483500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44700</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>27500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1089,50 +1108,53 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>12900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>4800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>23900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>50200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>49400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>51400</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>9788500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>13245500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12474000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9626500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13026300</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12267500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>12520600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>10711600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>10927100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10615100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>11807400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-662700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>740400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>575400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-651700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>728200</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>565800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>691400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>490700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>621600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>676600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>674900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-177000</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>12200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>12300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>5900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-162700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1144800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>811000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1125800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>797600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>922300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>681200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>809000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>833600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>845100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>89700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>84900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>74200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>88200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>83500</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>72900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>70600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>62000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>60600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>51600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>56300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-929400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>665100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>522700</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-914100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>654100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>514100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>629200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>440800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>573300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>623800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>624500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>192600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>150700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>189400</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>148200</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>180600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>126300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>147000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>191900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>201900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-854100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>472500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>372000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-839900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>464700</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>365900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>448600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>314600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>426400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>432000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>422600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-829000</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>452200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>360100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>444700</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>354100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>435400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>309000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>417400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>420700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>408500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>177000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>174100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-12200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-12300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-5900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-829000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>452200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>360100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>444700</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>354100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>435400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>309000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>417400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>420700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>408500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-829000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>452200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>360100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>444700</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>354100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>435400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>309000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>417400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>420700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>408500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2001200</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1594500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1683100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1968100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1568100</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1655200</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>1824200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1441000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1216200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1792900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1472000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>471300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>492800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>516800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>463500</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>484700</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>508200</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>553800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>444100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>526200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>507100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>563400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5003700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6646100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5683100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4920900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6536100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5589100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>6270500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>4759400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>5479800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4751600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>6121400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>309800</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>357700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>304700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>351700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>345900</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>346900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>310100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>314200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>288400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>327500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1332600</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1196200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1349300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1310500</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1176400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1252400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1170700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1088300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1027700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1014200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>9118600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10287300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9584000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8967700</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10117000</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>9425300</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>10247800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>8125400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>8624700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>8367800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>9498500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1478500</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1959400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2018000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1984600</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1876800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>920400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>884100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>896500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>934400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>2257200</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2498900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>818200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2219900</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2457500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>804700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>821800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>685600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>699000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>662000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>734800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>7699900</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>8454700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8324400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7572500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8314800</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8186600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>8070800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>7053200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>7112300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>6528900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>7231800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>203400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>184200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>149500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>181200</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>147100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>172300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>139600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>259200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>233400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>390900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>20757700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>23384500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>20894000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20414100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>22997400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20548200</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>21189500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>16924100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>17579300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>16688500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>18790400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>4808700</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5794400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5851800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4729100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5698500</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5754900</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>5415200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>4676300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>4558600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4435200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4918300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>308600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1271600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>259600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>303500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1250500</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>255300</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1506000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>496200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1318300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>601400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>845100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>4147200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4112500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3753700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4078600</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4044500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3691500</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>3910400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3269600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3474800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3287400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3824300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>9264600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>11178500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9865100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9111200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10993500</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9701800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>10831600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>8442100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>9351800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>8324000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>9587700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7298000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7177200</v>
       </c>
       <c r="F61" s="3">
-        <v>6092200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5991400</v>
       </c>
       <c r="H61" s="3">
-        <v>4667600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>4590300</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4275200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3917600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3340200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3378300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3613000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>878000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1154300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>980900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>863500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1135200</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>964600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1245200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>878300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1098400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>980600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1348700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>17458500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>18482500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15563800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17169600</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>18176600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>15306100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>16407100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>13287900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>13828500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>12721100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>14595200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3782400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4817100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>5213000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3719800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4737400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5126800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>5132900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4203300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>3846200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3876500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3539000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>3299100</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4902000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5330300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3244500</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4820900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>5242000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>4782400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>3636300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>3750800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3967400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4195200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-829000</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>452200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>360100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>444700</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>354100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>435400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>309000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>417400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>420700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>408500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>677000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>394700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>214100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>665800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>388200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>210600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>222500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>178300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>175000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>158200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>164300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>456900</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>296700</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1187800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>449400</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>291700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1168200</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>329000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1061100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>196300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1082700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>113900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-193800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-282300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-235700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-190600</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-277600</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-231800</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-242800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-166100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-185100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-169000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-147100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-367200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-429400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-361200</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-422300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-538300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-199400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-920000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-366900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-334500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-508400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-500000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5107,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-482100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5119,11 +5352,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-461100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5131,16 +5364,19 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-421400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>253600</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-898300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>249400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-883500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>410300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-519500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>139100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>542300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-99300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-47800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>86100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-120700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-23600</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>48100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>464100</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-135200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-156700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>456400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>287100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>221500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-608100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>356800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>369800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5213800</v>
+        <v>10528800</v>
       </c>
       <c r="E8" s="3">
-        <v>8974800</v>
+        <v>5429200</v>
       </c>
       <c r="F8" s="3">
-        <v>4600900</v>
+        <v>9345400</v>
       </c>
       <c r="G8" s="3">
-        <v>13754500</v>
+        <v>4790900</v>
       </c>
       <c r="H8" s="3">
-        <v>7147800</v>
+        <v>14322600</v>
       </c>
       <c r="I8" s="3">
-        <v>12833300</v>
+        <v>7443000</v>
       </c>
       <c r="J8" s="3">
+        <v>13363400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6684300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13212000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6708200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11202300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5748000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11548600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5960000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11291700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6002600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12482300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6398400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8091300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>11721600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10986400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>9083300</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8425500</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12205800</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11440200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11264600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>9540900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>9768000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>9561600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>10484500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>883500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2032800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1846900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1445500</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>920000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2116800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1923200</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1947400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1661400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1780600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1730100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1997800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>483500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>40000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>503500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>46500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>27500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1111,52 +1131,55 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>12900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>23500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>49400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>51400</v>
       </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>51400</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9626500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13026300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12267500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>10362200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10024100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13564300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12774200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>12520600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>10711600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>10927100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>10615100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>11807400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-651700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>728200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>565800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-678600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>758300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>589200</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>691400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>490700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>621600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>676600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>674900</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-174100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-181300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>12200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>12300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>5900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-160000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1125800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>797600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>526700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>830500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>922300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>681200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>809000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>833600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>845100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>88200</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>83500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>72900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>91900</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>70600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>62000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>60600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>51600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>56300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-914100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>654100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>514100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-951800</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>681100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>629200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>440800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>573300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>623800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>624500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-74100</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>189400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>148200</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>197200</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>180600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>126300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>147000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>191900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>201900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-839900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>464700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>365900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-874600</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>483900</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>448600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>314600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>426400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>432000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>422600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-815200</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>444700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>354100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-848900</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>463000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>435400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>309000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>417400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>420700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>408500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>174100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>181300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-12200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-12300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-5900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-815200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>444700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>354100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-848900</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>463000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>435400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>309000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>417400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>420700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>408500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-815200</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>444700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>354100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-848900</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>463000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>435400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>309000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>417400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>420700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>408500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1968100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1568100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1655200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>2279700</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2049400</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1632900</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1723600</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1824200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1441000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1216200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1792900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1472000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>463500</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>484700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>508200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>475300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>482600</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>504700</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>529200</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>553800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>444100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>526200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>507100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>563400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4920900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6536100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5589100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5684000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5124100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6806000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5819900</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>6270500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>4759400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>5479800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4751600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>6121400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>304700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>351700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>345900</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>317300</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>366300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>360100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>346900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>310100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>314200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>288400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>327500</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1310500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1176400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1327000</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1416100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1364600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1381800</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1252400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1170700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1088300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1027700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1014200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>8967700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>10117000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9425300</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>10155200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9338100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10534900</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9814600</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>10247800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>8125400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>8624700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>8367800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>9498500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1454000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1926900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1984600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1670900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2006500</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2066600</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1876800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>920400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>884100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>896500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>934400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2219900</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2457500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>804700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>2143700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2311600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>837900</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>821800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>685600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>699000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>662000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>734800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7572500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8314800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8186600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>7891400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7885300</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8658200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8524700</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>8070800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>7053200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>7112300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>6528900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>7231800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>181200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>147100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>208200</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>188600</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>172300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>139600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>259200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>233400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>390900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>20414100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>22997400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>20548200</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>22118400</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>21257300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>23947300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21396900</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>21189500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>16924100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>17579300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>16688500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>18790400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4729100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5698500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5754900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>2405900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4924500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5933900</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5992700</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>5415200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>4676300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>4558600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4435200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4918300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>303500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1250500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>255300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>316000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1302200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>265800</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1506000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>496200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1318300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>601400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>845100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4078600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4044500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3691500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>7405100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4211500</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3844000</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3910400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3269600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3474800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3287400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3824300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>9111200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10993500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9701800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>10885300</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9487500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>11447500</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10102500</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>10831600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>8442100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>9351800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>8324000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>9587700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>6633300</v>
       </c>
       <c r="E61" s="3">
-        <v>7177200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7473700</v>
       </c>
       <c r="G61" s="3">
-        <v>5991400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>6238900</v>
       </c>
       <c r="I61" s="3">
-        <v>4590300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>4779900</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4275200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3917600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3340200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3378300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3613000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>863500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1135200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>964600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>1008200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>899100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1182100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1004500</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1245200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>878300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1098400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>980600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1348700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>17169600</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>18176600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>15306100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>18545100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>17878700</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>18927300</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15938300</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>16407100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>13287900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>13828500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>12721100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>14595200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3719800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4737400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>5126800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>4093900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3873400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4933000</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5338500</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>5132900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>4203300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>3846200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3876500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3539000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>3244500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4820900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>5242000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>3573300</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3378500</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5020000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5458600</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4782400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>3636300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>3750800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3967400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4195200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-815200</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>444700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>354100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-848900</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>463000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>435400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>309000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>417400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>420700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>408500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>665800</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>388200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>210600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>355200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>693300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>404200</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>219300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>222500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>178300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>175000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>158200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>164300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>449400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>291700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1168200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>494900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>467900</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>303800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1216400</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>329000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1061100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>196300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1082700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>113900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-190600</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-277600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-231800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-289100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-242800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-166100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-185100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-169000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-144700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-361200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-422300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-150700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-376100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-439800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-538300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-199400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-920000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-366900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-334500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5331,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-500000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-520600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5343,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-482100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5355,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-461100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5367,16 +5601,19 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-421400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>249400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-883500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>259700</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-920000</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>410300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-519500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>139100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-157100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>542300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-97600</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>86100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-120700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-23600</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-202000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>48100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>456400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-132900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>475300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>287100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>221500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-608100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>356800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>369800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10528800</v>
+        <v>5234700</v>
       </c>
       <c r="E8" s="3">
-        <v>5429200</v>
+        <v>10033900</v>
       </c>
       <c r="F8" s="3">
-        <v>9345400</v>
+        <v>5174000</v>
       </c>
       <c r="G8" s="3">
-        <v>4790900</v>
+        <v>8906200</v>
       </c>
       <c r="H8" s="3">
-        <v>14322600</v>
+        <v>4565700</v>
       </c>
       <c r="I8" s="3">
-        <v>7443000</v>
+        <v>13649400</v>
       </c>
       <c r="J8" s="3">
+        <v>7093200</v>
+      </c>
+      <c r="K8" s="3">
         <v>13363400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6684300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13212000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6708200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11202300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5748000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11548600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5960000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11291700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6002600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12482300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6398400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>9083300</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8425500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12205800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8656300</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8029400</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11632100</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11440200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11264600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>9540900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9768000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9561600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>10484500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1445500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>920000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2116800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1377500</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>876700</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2017300</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1923200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1947400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1661400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1780600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1730100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1997800</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,43 +1104,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>133500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>503500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>46500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>127200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>479800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>41600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>27500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1134,56 +1154,59 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>12900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>25700</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>24500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>51400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>51400</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>10362200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10024100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>13564300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9875100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9552900</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12926700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>12774200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>12520600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>10711600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10927100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>10615100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>11807400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>166600</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-678600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>758300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>158800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-646700</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>722600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>589200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>691400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>490700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>621600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>676600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>674900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-181300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>12200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>12300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>526700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-166600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1172300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>502000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1117200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>830500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>922300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>681200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>809000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>833600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>845100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>63700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>91900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>87000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>60700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>87600</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>82900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>75900</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>70600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>62000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>60600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>51600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>56300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>107800</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-951800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>681100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>102700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-907100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>649100</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>535300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>629200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>440800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>573300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>623800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>624500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>64900</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-77200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>197200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>188000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>154300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>180600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>126300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>147000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>191900</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>201900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>42900</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-874600</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>483900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-833500</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>461100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>381000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>448600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>314600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>426400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>432000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>422600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-848900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>463000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>441300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>368700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>435400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>309000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>417400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>420700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>408500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>181300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>172800</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-12200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-848900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>463000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>441300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>368700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>435400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>309000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>417400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>420700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>408500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-848900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>463000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>441300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>368700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>435400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>309000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>417400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>420700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>408500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2279700</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2049400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1632900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2172600</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1953100</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1556200</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>1723600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1824200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1441000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1216200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1792900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1472000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>475300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>482600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>504700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>453000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>460000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>481000</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>529200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>553800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>444100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>526200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>507100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>563400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>5684000</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5124100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>6806000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5416800</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4883300</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6486100</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>5819900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>6270500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>4759400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5479800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4751600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>6121400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>300100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>317300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>366300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>286000</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>302400</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>349100</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>360100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>346900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>310100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>314200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>288400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>327500</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1416100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1364600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1225000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1349500</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300500</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1381800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1252400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1170700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1088300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1027700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1014200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>10155200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>9338100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10534900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9677800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>8899200</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10039700</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>9814600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>10247800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>8125400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>8624700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>8367800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>9498500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1670900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1514100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2006500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1592300</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1442900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1912200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>2066600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1876800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>920400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>884100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>896500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>934400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>2143700</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2311600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2559000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2043000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2202900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2438700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>837900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>821800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>685600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>699000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>662000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>734800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>7891400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7885300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>8658200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7520500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7514600</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8251300</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>8524700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>8070800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>7053200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7112300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>6528900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>7231800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>257200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>208200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>188600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>245200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>198500</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>179800</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>153100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>172300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>139600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>259200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>233400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>390900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>22118400</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>21257300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>23947300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21078800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>20258100</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>22821700</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>21396900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>21189500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>16924100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>17579300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>16688500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>18790400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2405900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4924500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5933900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2292800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4693000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5654900</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>5992700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>5415200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>4676300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4558600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4435200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4918300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1074300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>316000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1302200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>301200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1241000</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>265800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1506000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>496200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1318300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>601400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>845100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>7405100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4247000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4211500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7057000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4047400</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4013600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>3844000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3910400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3269600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3474800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3287400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3824300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>10885300</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>9487500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>11447500</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10373600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>9041600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10909400</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>10102500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>10831600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>8442100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>9351800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>8324000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>9587700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6633300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>6321500</v>
       </c>
       <c r="F61" s="3">
-        <v>7473700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7122400</v>
       </c>
       <c r="H61" s="3">
-        <v>6238900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5945600</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4779900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4275200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3917600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3340200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3378300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3613000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>1008200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>899100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1182100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>960800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>856900</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1126600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1004500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1245200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>878300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1098400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>980600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1348700</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>18545100</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>17878700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>18927300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17673400</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>17038300</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>18037700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>15938300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>16407100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>13287900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>13828500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>12721100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>14595200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>4093900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3873400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4933000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3901500</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3691400</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4701200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>5338500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>5132900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>4203300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3846200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3876500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3539000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>3573300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3378500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5020000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3405300</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3219700</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4784000</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>5458600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4782400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>3636300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3750800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>3967400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>4195200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-848900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>463000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>441300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>368700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>435400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>309000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>417400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>420700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>408500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>355200</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>693300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>404200</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>338500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>660800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>385200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>219300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>222500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>178300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>175000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>158200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>164300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>494900</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>467900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>303800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>471600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>446000</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>289500</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1216400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>329000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1061100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>196300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1082700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>113900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-167800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-198400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-289100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-159900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-241300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-242800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-166100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-185100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-169000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-128600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-150700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-376100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-358400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-439800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-538300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-199400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-920000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-366900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-334500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-520600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-496100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5580,11 +5814,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-482100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5592,11 +5826,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-461100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5604,16 +5838,19 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-421400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-176400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>259700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-168100</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>247500</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-920000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>410300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-519500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>139100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-157100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>542300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>13500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-101700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>86100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-120700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-202000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>48100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>203300</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>475300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>193800</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>453000</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-160500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>287100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>221500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-608100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>356800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>369800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5234700</v>
+        <v>9973300</v>
       </c>
       <c r="E8" s="3">
-        <v>10033900</v>
+        <v>5062900</v>
       </c>
       <c r="F8" s="3">
-        <v>5174000</v>
+        <v>9704600</v>
       </c>
       <c r="G8" s="3">
-        <v>8906200</v>
+        <v>5004200</v>
       </c>
       <c r="H8" s="3">
-        <v>4565700</v>
+        <v>8613900</v>
       </c>
       <c r="I8" s="3">
-        <v>13649400</v>
+        <v>4415900</v>
       </c>
       <c r="J8" s="3">
+        <v>13201400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7093200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13363400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6684300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13212000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6708200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11202300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5748000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11548600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5960000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11291700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6002600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12482300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6398400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8656300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8029400</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11632100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>8571000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8372300</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7765900</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11250400</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11440200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11264600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>9540900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>9768000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9561600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>10484500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1377500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>876700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2017300</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1402300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1332300</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>848000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1951100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1923200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1947400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1661400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1780600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1730100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1997800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,46 +1124,49 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>127200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>479800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>121900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>476500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>41600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>27500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1157,59 +1177,62 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>12900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>24500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>51400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>51400</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9875100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9552900</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12926700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>9744100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9551100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9239400</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12502500</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>12774200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>12520600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>10711600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>10927100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>10615100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>11807400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>158800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-646700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>722600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>153600</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-625500</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>698900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>589200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>691400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>490700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>621600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>676600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>674900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-172800</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-167100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>12200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>12300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>5900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>502000</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>-158800</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>1117200</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>830500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>922300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>681200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>809000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>833600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>845100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>60700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>87600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>82900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>84700</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>75900</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>70600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>62000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>60600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>51600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>56300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>102700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-907100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>649100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>99400</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-877300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>627800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>535300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>629200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>440800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>573300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>623800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>624500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>61900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-73500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>188000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>181800</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>154300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>180600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>126300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>147000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>191900</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>201900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>40900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-833500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>461100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>39500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-806200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>446000</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>381000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>448600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>314600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>426400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>432000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>422600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>38500</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-809000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>441300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-782500</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>368700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>435400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>309000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>417400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>420700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>408500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>172800</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>167100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-12200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-12300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-5900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>38500</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-809000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>441300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-782500</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>368700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>435400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>309000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>417400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>420700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>408500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>38500</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-809000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>441300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-782500</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>368700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>435400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>309000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>417400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>420700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>408500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2172600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1953100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1556200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2101300</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1505100</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1723600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1824200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1441000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1216200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1792900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1472000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>453000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>460000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>481000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>415500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>438100</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>444900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>465200</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>529200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>553800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>444100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>526200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>507100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>563400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5416800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4883300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6486100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>5000800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5239000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4723000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6273300</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>5819900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>6270500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>4759400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>5479800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4751600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>6121400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>286000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>302400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>349100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>276600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>292400</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>360100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>346900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>310100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>314200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>288400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>327500</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1349500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1300500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1167400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1257800</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1129100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1381800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1252400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1170700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1088300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1027700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1014200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9677800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>8899200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10039700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>10875500</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>9360200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8607100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9710300</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>9814600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>10247800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>8125400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>8624700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>8367800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>9498500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1592300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1442900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1912200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>1532200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1540100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1395600</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>2066600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1876800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>920400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>884100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>896500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>934400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2043000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2202900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2438700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>1540100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1975900</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2130600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2358700</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>837900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>821800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>685600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>699000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>662000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>734800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7520500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7514600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8251300</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>7273700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7273700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7268000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7980500</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>8524700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>8070800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>7053200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>7112300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>6528900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>7231800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>245200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>198500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>179800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>237100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>191900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>153100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>172300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>139600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>259200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>233400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>390900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21078800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>20258100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>22821700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>21442700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>20387000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>19593300</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>22072800</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>21396900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>21189500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>16924100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>17579300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>16688500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>18790400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2292800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4693000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5654900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>2459200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2217600</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4539000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5469400</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>5992700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5415200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>4676300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4558600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4435200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4918300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1023800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>301200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1241000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>923600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>990200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>291300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200200</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>265800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1506000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>496200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1318300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>601400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>845100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>7057000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4047400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4013600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>6613100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6825400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3914600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3881800</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3844000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3910400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3269600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3474800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3287400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3824300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10373600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>9041600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10909400</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>9995900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10033200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8744900</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10551400</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>10102500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>10831600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>8442100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>9351800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>8324000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>9587700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7017400</v>
       </c>
       <c r="E61" s="3">
-        <v>6321500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>6114100</v>
       </c>
       <c r="G61" s="3">
-        <v>7122400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>6888600</v>
       </c>
       <c r="I61" s="3">
-        <v>5945600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5750500</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4779900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4275200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3917600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3340200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3378300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3613000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>960800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>856900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1126600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>844600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>929200</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>828800</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1089600</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1004500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1245200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>878300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1098400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>980600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1348700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>17673400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>17038300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>18037700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>17865700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>17093400</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>16479200</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>17445700</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>15938300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>16407100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>13287900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>13828500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>12721100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>14595200</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3901500</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3691400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4701200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>3901000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>3773500</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3570200</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4546900</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>5338500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>5132900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>4203300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>3846200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3876500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3539000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
-        <v>3405300</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3219700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4784000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="D76" s="3">
+        <v>3577000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>3293600</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3114100</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4627100</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>5458600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4782400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>3636300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3750800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>3967400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>4195200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>38500</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-809000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>441300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-782500</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>368700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>435400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>309000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>417400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>420700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>408500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>338500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>660800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>385200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>219300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>222500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>178300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>175000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>158200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>164300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>471600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>446000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>289500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1216400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>329000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1061100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>196300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1082700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>113900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-159900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-189100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-275500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-241300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-242800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-166100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-185100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-169000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-122600</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-143600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-358400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-439800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-538300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-199400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-920000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-366900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-334500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-496100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5817,11 +6051,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-482100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5829,11 +6063,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-461100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5841,16 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-421400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-168100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>247500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-920000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>410300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-519500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>139100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-157100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>542300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-96900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-17100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>86100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-120700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-23600</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-202000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>48100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>193800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>453000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-131900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-160500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>287100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>221500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-608100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>356800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>369800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9973300</v>
+        <v>5742600</v>
       </c>
       <c r="E8" s="3">
-        <v>5062900</v>
+        <v>9636000</v>
       </c>
       <c r="F8" s="3">
-        <v>9704600</v>
+        <v>4891600</v>
       </c>
       <c r="G8" s="3">
-        <v>5004200</v>
+        <v>9376400</v>
       </c>
       <c r="H8" s="3">
-        <v>8613900</v>
+        <v>4834900</v>
       </c>
       <c r="I8" s="3">
-        <v>4415900</v>
+        <v>8322600</v>
       </c>
       <c r="J8" s="3">
+        <v>4266500</v>
+      </c>
+      <c r="K8" s="3">
         <v>13201400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7093200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13363400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6684300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13212000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6708200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11202300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5748000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11548600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5960000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11291700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6002600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12482300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6398400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>8571000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8372300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7765900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8281100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8089100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7503300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>11250400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11440200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11264600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>9540900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9768000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>9561600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>10484500</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1402300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1332300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>848000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1287300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>819300</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1951100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1923200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1947400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1661400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1780600</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1730100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1997800</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,49 +1143,52 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>92600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>121900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>476500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>117800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>460400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>41800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>41600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>27500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1180,62 +1199,65 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>12900</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>13500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>22900</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>51400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>51400</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>9744100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9551100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>9239400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9414600</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9228000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8926900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>12502500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>12774200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>12520600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>10711600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>10927100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>10615100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>11807400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>229200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>153600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-625500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>221500</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>148400</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>698900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>589200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>691400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>490700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>621600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>676600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>674900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,96 +1480,100 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-167100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>8400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>12200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>12300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>5900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>880400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>469100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>211600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1545,251 +1581,263 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>830500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>922300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>681200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>809000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>833600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>845100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>64400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>56700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>80200</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>75900</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>70600</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>60600</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>51600</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>56300</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>58700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>84700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>80200</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>75900</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
-        <v>70600</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>62000</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
-        <v>60600</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
-        <v>51600</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
-        <v>56300</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
-        <v>58700</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>168200</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>99400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-877300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>162500</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-847600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>627800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>535300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>629200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>440800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>573300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>623800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>624500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>54200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>59800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>57800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>181800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>154300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>180600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>126300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>147000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>191900</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>201900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>114000</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>39500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-806200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>38200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-778900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>446000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>381000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>448600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>314600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>426400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>432000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>422600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>119700</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-782500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>426800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>368700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>435400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>309000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>417400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>420700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>408500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>167100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>161500</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-12300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-5900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>119700</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-782500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>426800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>368700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>435400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>309000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>417400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>420700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>408500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>119700</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-782500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>426800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>368700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>435400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>309000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>417400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>420700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>408500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3624400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+        <v>3501800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2030200</v>
       </c>
       <c r="F41" s="3">
-        <v>2101300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
+        <v>1825100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1454200</v>
       </c>
       <c r="H41" s="3">
-        <v>1889000</v>
+        <v>1534900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>1505100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1723600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1824200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1441000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1216200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1792900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1472000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>415500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>401500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>423300</v>
       </c>
       <c r="F42" s="3">
-        <v>438100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>429800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>449500</v>
       </c>
       <c r="H42" s="3">
-        <v>444900</v>
+        <v>471300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>465200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>529200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>553800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>444100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>526200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>507100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>563400</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5000800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
+        <v>4831600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5061800</v>
       </c>
       <c r="F43" s="3">
-        <v>5239000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+        <v>4563300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6061100</v>
       </c>
       <c r="H43" s="3">
-        <v>4723000</v>
+        <v>5182900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>6273300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>5819900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>6270500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>4759400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>5479800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4751600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>6121400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>289000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
+        <v>279300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>267300</v>
       </c>
       <c r="F44" s="3">
-        <v>276600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
+        <v>282500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>326200</v>
       </c>
       <c r="H44" s="3">
-        <v>292400</v>
+        <v>320700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>337600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>360100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>346900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>310100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>314200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>288400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>327500</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1545700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
+        <v>1493500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1261100</v>
       </c>
       <c r="F45" s="3">
-        <v>1305200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+        <v>1215300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1090900</v>
       </c>
       <c r="H45" s="3">
-        <v>1257800</v>
+        <v>1230500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1129100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1381800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1252400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1170700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1088300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1027700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1014200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10875500</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
+        <v>10507600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9043600</v>
       </c>
       <c r="F46" s="3">
-        <v>9360200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
+        <v>8316000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>9381800</v>
       </c>
       <c r="H46" s="3">
-        <v>8607100</v>
+        <v>8740400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>9710300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>9814600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>10247800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>8125400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>8624700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>8367800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>9498500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1532200</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+        <v>1480400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1488000</v>
       </c>
       <c r="F47" s="3">
-        <v>1540100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+        <v>1348400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1786900</v>
       </c>
       <c r="H47" s="3">
-        <v>1395600</v>
+        <v>1840400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1849500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>2066600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1876800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>920400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>884100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>896500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>934400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1540100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>1488000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1909100</v>
       </c>
       <c r="F48" s="3">
-        <v>1975900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+        <v>2058500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2278900</v>
       </c>
       <c r="H48" s="3">
-        <v>2130600</v>
+        <v>746200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>2358700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>837900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>821800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>685600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>699000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>662000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>734800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7273700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+        <v>7027600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7027600</v>
       </c>
       <c r="F49" s="3">
-        <v>7273700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+        <v>7022200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7710600</v>
       </c>
       <c r="H49" s="3">
-        <v>7268000</v>
+        <v>7591600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>7980500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>8524700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>8070800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7053200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>7112300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>6528900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>7231800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>221300</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>213800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>229100</v>
       </c>
       <c r="F52" s="3">
-        <v>237100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>185500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>168000</v>
       </c>
       <c r="H52" s="3">
-        <v>191900</v>
+        <v>136400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>173900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>153100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>172300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>139600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>259200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>233400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>390900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21442700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
+        <v>20717500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19697500</v>
       </c>
       <c r="F54" s="3">
-        <v>20387000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
+        <v>18930600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>21326200</v>
       </c>
       <c r="H54" s="3">
-        <v>19593300</v>
+        <v>19054900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>22072800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>21396900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>21189500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>16924100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>17579300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>16688500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>18790400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2459200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+        <v>2376000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2142500</v>
       </c>
       <c r="F57" s="3">
-        <v>2217600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+        <v>4385500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5284400</v>
       </c>
       <c r="H57" s="3">
-        <v>4539000</v>
+        <v>5336700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>5469400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>5992700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5415200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4676300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4558600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4435200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4918300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>923600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>892400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>956700</v>
       </c>
       <c r="F58" s="3">
-        <v>990200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>281500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1159600</v>
       </c>
       <c r="H58" s="3">
-        <v>291300</v>
+        <v>236700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>265800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1506000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>496200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>1318300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>601400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>845100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6613100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>6389500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6594600</v>
       </c>
       <c r="F59" s="3">
-        <v>6825400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
+        <v>3782200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3750500</v>
       </c>
       <c r="H59" s="3">
-        <v>3914600</v>
+        <v>3423300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>3881800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3844000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3910400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3269600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3474800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3287400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>3824300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9995900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
+        <v>9657800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9693800</v>
       </c>
       <c r="F60" s="3">
-        <v>10033200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
+        <v>8449100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10194600</v>
       </c>
       <c r="H60" s="3">
-        <v>8744900</v>
+        <v>8996700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>10551400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>10102500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>10831600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>8442100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>9351800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>8324000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>9587700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7017400</v>
+        <v>6780000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5907300</v>
       </c>
       <c r="F61" s="3">
-        <v>6114100</v>
+        <v>6655600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5556000</v>
       </c>
       <c r="H61" s="3">
-        <v>6888600</v>
+        <v>4256700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>5750500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4779900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4275200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3917600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3340200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3378300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3613000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>844600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>816000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>897800</v>
       </c>
       <c r="F62" s="3">
-        <v>929200</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+        <v>800700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1052700</v>
       </c>
       <c r="H62" s="3">
-        <v>828800</v>
+        <v>894500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1089600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1004500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1245200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>878300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1098400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>980600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>1348700</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17865700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+        <v>17261500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16515300</v>
       </c>
       <c r="F66" s="3">
-        <v>17093400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
+        <v>15921800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>16855700</v>
       </c>
       <c r="H66" s="3">
-        <v>16479200</v>
+        <v>14193800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>17445700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>15938300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>16407100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>13287900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>13828500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>12721100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>14595200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3901000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+        <v>3769100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3645800</v>
       </c>
       <c r="F72" s="3">
-        <v>3773500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
+        <v>3449500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4393100</v>
       </c>
       <c r="H72" s="3">
-        <v>3570200</v>
+        <v>4754200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4546900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>5338500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>5132900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>4203300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3846200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3876500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>3539000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3577000</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
+        <v>3456000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3182200</v>
       </c>
       <c r="F76" s="3">
-        <v>3293600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
+        <v>3008700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4470500</v>
       </c>
       <c r="H76" s="3">
-        <v>3114100</v>
+        <v>4861100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>4627100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>5458600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4782400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3636300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>3750800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>3967400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>4195200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>119700</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>37300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-782500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>426800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>368700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>435400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>309000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>417400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>420700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>408500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>655600</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>316400</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+        <v>977500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>219300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>222500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>178300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>175000</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>158200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>164300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>1070200</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>440700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+        <v>687300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1216400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>329000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1061100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>196300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1082700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>113900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-322900</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-149500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-434200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-241300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-242800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-166100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-185100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-169000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-330500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-114500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-469100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-439800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-538300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-199400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-920000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-366900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-334500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6039,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-463600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6054,11 +6287,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-482100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6066,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-461100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6078,16 +6311,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-421400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>860700</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-157100</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+        <v>216000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-920000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>410300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-519500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>139100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-157100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>542300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>48000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-17100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>86100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-120700</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-23600</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-202000</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>48100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>1648400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>181100</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-160500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>287100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>221500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-608100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>356800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>369800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5742600</v>
+        <v>10650900</v>
       </c>
       <c r="E8" s="3">
-        <v>9636000</v>
+        <v>5463500</v>
       </c>
       <c r="F8" s="3">
-        <v>4891600</v>
+        <v>9167800</v>
       </c>
       <c r="G8" s="3">
-        <v>9376400</v>
+        <v>4653900</v>
       </c>
       <c r="H8" s="3">
-        <v>4834900</v>
+        <v>8920800</v>
       </c>
       <c r="I8" s="3">
-        <v>8322600</v>
+        <v>4600000</v>
       </c>
       <c r="J8" s="3">
+        <v>7918100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4266500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13201400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7093200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13363400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6684300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13212000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6708200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11202300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5748000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11548600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5960000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11291700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6002600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12482300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6398400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8281100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8089100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7503300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>9125200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7878700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7696000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7138700</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>11250400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11440200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11264600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>9540900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9768000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>9561600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>10484500</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1354900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1287300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>819300</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1525700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1224700</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>779500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1951100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1923200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1947400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1661400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1780600</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1730100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1997800</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,52 +1163,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>89500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>117800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>460400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>85100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>112100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>438000</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>41800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>41600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>27500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1202,65 +1222,68 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>12900</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>51400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>51400</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9414600</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>9228000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8926900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>10093600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8957100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8779600</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8493100</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>12502500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>12774200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>12520600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>10711600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>10927100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>10615100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>11807400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>221500</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>148400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-604400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>557400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>210700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>141200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-575000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>698900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>589200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>691400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>490700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>621600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>676600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>674900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,102 +1514,106 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-161500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>12200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>12300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>5900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>880400</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>469100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>211600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>825100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>837600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>446300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>201400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1584,260 +1621,272 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>830500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>922300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>681200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>809000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>833600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>845100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>62200</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>56700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>81800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>80200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>75900</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>70600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>62000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>60600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>51600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>56300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>162500</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>96000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-847600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>502300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>154600</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>91300</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-806400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>627800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>535300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>629200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>440800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>573300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>623800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>624500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>52400</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>57800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-68700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>49800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>181800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>154300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>180600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>126300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>147000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>191900</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>201900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>110200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>38200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-778900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>361200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>104800</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>36300</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-741100</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>446000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>381000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>448600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>314600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>426400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>432000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>422600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>115600</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-756000</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-719300</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>426800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>368700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>435400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>309000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>417400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>420700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>408500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>161500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-12200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-12300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-5900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>115600</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-756000</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-719300</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>426800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>368700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>435400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>309000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>417400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>420700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>408500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>115600</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-756000</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-719300</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>426800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>368700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>435400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>309000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>417400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>420700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>408500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3501800</v>
+        <v>2252200</v>
       </c>
       <c r="E41" s="3">
-        <v>2030200</v>
+        <v>3331700</v>
       </c>
       <c r="F41" s="3">
-        <v>1825100</v>
+        <v>1931500</v>
       </c>
       <c r="G41" s="3">
-        <v>1454200</v>
+        <v>1736400</v>
       </c>
       <c r="H41" s="3">
-        <v>1534900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>1383500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1460300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1505100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1723600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1824200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1441000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1216200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1792900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1472000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>401500</v>
+        <v>507500</v>
       </c>
       <c r="E42" s="3">
-        <v>423300</v>
+        <v>381900</v>
       </c>
       <c r="F42" s="3">
-        <v>429800</v>
+        <v>402700</v>
       </c>
       <c r="G42" s="3">
-        <v>449500</v>
+        <v>408900</v>
       </c>
       <c r="H42" s="3">
-        <v>471300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>427600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>448400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>465200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>529200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>553800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>444100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>526200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>507100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>563400</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4831600</v>
+        <v>5496700</v>
       </c>
       <c r="E43" s="3">
-        <v>5061800</v>
+        <v>4596900</v>
       </c>
       <c r="F43" s="3">
-        <v>4563300</v>
+        <v>4815900</v>
       </c>
       <c r="G43" s="3">
-        <v>6061100</v>
+        <v>4341500</v>
       </c>
       <c r="H43" s="3">
-        <v>5182900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>5766600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4931100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>6273300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>5819900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>6270500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>4759400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>5479800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4751600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>6121400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>279300</v>
+        <v>312400</v>
       </c>
       <c r="E44" s="3">
-        <v>267300</v>
+        <v>265700</v>
       </c>
       <c r="F44" s="3">
-        <v>282500</v>
+        <v>254300</v>
       </c>
       <c r="G44" s="3">
-        <v>326200</v>
+        <v>268800</v>
       </c>
       <c r="H44" s="3">
-        <v>320700</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>310300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>305100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>337600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>360100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>346900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>310100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>314200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>288400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>327500</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1493500</v>
+        <v>1384600</v>
       </c>
       <c r="E45" s="3">
-        <v>1261100</v>
+        <v>1420900</v>
       </c>
       <c r="F45" s="3">
-        <v>1215300</v>
+        <v>1199800</v>
       </c>
       <c r="G45" s="3">
-        <v>1090900</v>
+        <v>1156200</v>
       </c>
       <c r="H45" s="3">
-        <v>1230500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1037900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1170800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1129100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1381800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1252400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1170700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1088300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1027700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1014200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10507600</v>
+        <v>9953500</v>
       </c>
       <c r="E46" s="3">
-        <v>9043600</v>
+        <v>9997100</v>
       </c>
       <c r="F46" s="3">
-        <v>8316000</v>
+        <v>8604200</v>
       </c>
       <c r="G46" s="3">
-        <v>9381800</v>
+        <v>7911900</v>
       </c>
       <c r="H46" s="3">
-        <v>8740400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>8925900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8315700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>9710300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>9814600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>10247800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>8125400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>8624700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>8367800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>9498500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1480400</v>
+        <v>1598400</v>
       </c>
       <c r="E47" s="3">
-        <v>1488000</v>
+        <v>1408400</v>
       </c>
       <c r="F47" s="3">
-        <v>1348400</v>
+        <v>1415700</v>
       </c>
       <c r="G47" s="3">
-        <v>1786900</v>
+        <v>1282800</v>
       </c>
       <c r="H47" s="3">
-        <v>1840400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1700100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1750900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>1849500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>2066600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1876800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>920400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>884100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>896500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>934400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1488000</v>
+        <v>1426100</v>
       </c>
       <c r="E48" s="3">
-        <v>1909100</v>
+        <v>1415700</v>
       </c>
       <c r="F48" s="3">
-        <v>2058500</v>
+        <v>1816300</v>
       </c>
       <c r="G48" s="3">
-        <v>2278900</v>
+        <v>1958500</v>
       </c>
       <c r="H48" s="3">
-        <v>746200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>2168200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>709900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>2358700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>837900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>821800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>685600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>699000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>662000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>734800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7027600</v>
+        <v>7046300</v>
       </c>
       <c r="E49" s="3">
-        <v>7027600</v>
+        <v>6686200</v>
       </c>
       <c r="F49" s="3">
-        <v>7022200</v>
+        <v>6686200</v>
       </c>
       <c r="G49" s="3">
-        <v>7710600</v>
+        <v>6681000</v>
       </c>
       <c r="H49" s="3">
-        <v>7591600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>7335900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7222700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>7980500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>8524700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>8070800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>7053200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>7112300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>6528900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>7231800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213800</v>
+        <v>373600</v>
       </c>
       <c r="E52" s="3">
-        <v>229100</v>
+        <v>203400</v>
       </c>
       <c r="F52" s="3">
-        <v>185500</v>
+        <v>218000</v>
       </c>
       <c r="G52" s="3">
-        <v>168000</v>
+        <v>176400</v>
       </c>
       <c r="H52" s="3">
-        <v>136400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>159800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>129700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>173900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>153100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>172300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>139600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>259200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>233400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>390900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20717500</v>
+        <v>20397800</v>
       </c>
       <c r="E54" s="3">
-        <v>19697500</v>
+        <v>19710800</v>
       </c>
       <c r="F54" s="3">
-        <v>18930600</v>
+        <v>18740300</v>
       </c>
       <c r="G54" s="3">
-        <v>21326200</v>
+        <v>18010700</v>
       </c>
       <c r="H54" s="3">
-        <v>19054900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>20289900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>18129000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>22072800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>21396900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>21189500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>16924100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>17579300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>16688500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>18790400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2376000</v>
+        <v>2434900</v>
       </c>
       <c r="E57" s="3">
-        <v>2142500</v>
+        <v>2260500</v>
       </c>
       <c r="F57" s="3">
-        <v>4385500</v>
+        <v>2038400</v>
       </c>
       <c r="G57" s="3">
-        <v>5284400</v>
+        <v>4172400</v>
       </c>
       <c r="H57" s="3">
-        <v>5336700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>5027600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5077400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>5469400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5992700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5415200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>4676300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4558600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4435200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4918300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>892400</v>
+        <v>248100</v>
       </c>
       <c r="E58" s="3">
-        <v>956700</v>
+        <v>849000</v>
       </c>
       <c r="F58" s="3">
-        <v>281500</v>
+        <v>910200</v>
       </c>
       <c r="G58" s="3">
-        <v>1159600</v>
+        <v>267800</v>
       </c>
       <c r="H58" s="3">
-        <v>236700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>1103300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>225200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>265800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1506000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>496200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>1318300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>601400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>845100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6389500</v>
+        <v>6553300</v>
       </c>
       <c r="E59" s="3">
-        <v>6594600</v>
+        <v>6079000</v>
       </c>
       <c r="F59" s="3">
-        <v>3782200</v>
+        <v>6274100</v>
       </c>
       <c r="G59" s="3">
-        <v>3750500</v>
+        <v>3598400</v>
       </c>
       <c r="H59" s="3">
-        <v>3423300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>3568300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3256900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>3881800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3844000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3910400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3269600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3474800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3287400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>3824300</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9657800</v>
+        <v>9236300</v>
       </c>
       <c r="E60" s="3">
-        <v>9693800</v>
+        <v>9188500</v>
       </c>
       <c r="F60" s="3">
-        <v>8449100</v>
+        <v>9222800</v>
       </c>
       <c r="G60" s="3">
-        <v>10194600</v>
+        <v>8038500</v>
       </c>
       <c r="H60" s="3">
-        <v>8996700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>9699200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8559600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>10551400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>10102500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>10831600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>8442100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>9351800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>8324000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>9587700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6780000</v>
+        <v>6575100</v>
       </c>
       <c r="E61" s="3">
-        <v>5907300</v>
+        <v>6450500</v>
       </c>
       <c r="F61" s="3">
-        <v>6655600</v>
+        <v>5620200</v>
       </c>
       <c r="G61" s="3">
-        <v>5556000</v>
+        <v>6332200</v>
       </c>
       <c r="H61" s="3">
-        <v>4256700</v>
+        <v>5286000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>4049900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>5750500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4779900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4275200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3917600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3340200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3378300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3613000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>816000</v>
+        <v>824100</v>
       </c>
       <c r="E62" s="3">
-        <v>897800</v>
+        <v>776300</v>
       </c>
       <c r="F62" s="3">
-        <v>800700</v>
+        <v>854200</v>
       </c>
       <c r="G62" s="3">
-        <v>1052700</v>
+        <v>761800</v>
       </c>
       <c r="H62" s="3">
-        <v>894500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>1001600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>851100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1089600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1004500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1245200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>878300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1098400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>980600</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>1348700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17261500</v>
+        <v>16645800</v>
       </c>
       <c r="E66" s="3">
-        <v>16515300</v>
+        <v>16422700</v>
       </c>
       <c r="F66" s="3">
-        <v>15921800</v>
+        <v>15712800</v>
       </c>
       <c r="G66" s="3">
-        <v>16855700</v>
+        <v>15148200</v>
       </c>
       <c r="H66" s="3">
-        <v>14193800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>16036600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>13504100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>17445700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>15938300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>16407100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>13287900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>13828500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>12721100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>14595200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3769100</v>
+        <v>3807000</v>
       </c>
       <c r="E72" s="3">
-        <v>3645800</v>
+        <v>3585900</v>
       </c>
       <c r="F72" s="3">
-        <v>3449500</v>
+        <v>3468700</v>
       </c>
       <c r="G72" s="3">
-        <v>4393100</v>
+        <v>3281800</v>
       </c>
       <c r="H72" s="3">
-        <v>4754200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>4179600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4523200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4546900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>5338500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>5132900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>4203300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3846200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3876500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>3539000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3456000</v>
+        <v>3752000</v>
       </c>
       <c r="E76" s="3">
-        <v>3182200</v>
+        <v>3288100</v>
       </c>
       <c r="F76" s="3">
-        <v>3008700</v>
+        <v>3027600</v>
       </c>
       <c r="G76" s="3">
-        <v>4470500</v>
+        <v>2862500</v>
       </c>
       <c r="H76" s="3">
-        <v>4861100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>4253300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4624900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4627100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>5458600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4782400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3636300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>3750800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>3967400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>4195200</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>115600</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-756000</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-719300</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>426800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>368700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>435400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>309000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>417400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>420700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>408500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>655600</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>316400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>977500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>623800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>301000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>930000</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>219300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>222500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>178300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>175000</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>158200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>164300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1070200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>440700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>687300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1018200</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>419300</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>653900</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1216400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>329000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1061100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>196300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1082700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>113900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-322900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-149500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-434200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="D91" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-307200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-241300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-242800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-166100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-185100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-169000</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-330500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-114500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-469100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-314500</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-446300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-439800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-538300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-199400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-920000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-366900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-334500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,13 +6484,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-305100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6272,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-463600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-441100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6290,11 +6524,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-482100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6302,11 +6536,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-461100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6314,16 +6548,19 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-421400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>860700</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3">
+        <v>-1030600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>818900</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>205500</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-920000</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
+        <v>410300</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-519500</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
+        <v>139100</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-157100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>216000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-920000</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
-        <v>410300</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-519500</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
-        <v>139100</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-157100</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>542300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>48000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-134200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>45700</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-17100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>86100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-120700</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-23600</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-202000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>48100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1648400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>181100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>300000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>-965200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1568300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>172300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-160500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>287100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>221500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-608100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>356800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>369800</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10650900</v>
+        <v>5508600</v>
       </c>
       <c r="E8" s="3">
-        <v>5463500</v>
+        <v>10235300</v>
       </c>
       <c r="F8" s="3">
-        <v>9167800</v>
+        <v>5250300</v>
       </c>
       <c r="G8" s="3">
-        <v>4653900</v>
+        <v>8810000</v>
       </c>
       <c r="H8" s="3">
-        <v>8920800</v>
+        <v>4472300</v>
       </c>
       <c r="I8" s="3">
-        <v>4600000</v>
+        <v>8572700</v>
       </c>
       <c r="J8" s="3">
+        <v>4420500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7918100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4266500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13201400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7093200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13363400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6684300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13212000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6708200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11202300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5748000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11548600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5960000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11291700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6002600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12482300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6398400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>9125200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7878700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7696000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8769100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7571300</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7395700</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7138700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>11250400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11440200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11264600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9540900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>9768000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>9561600</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>10484500</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1525700</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1289100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1224700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1466200</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1176900</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>779500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1951100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1923200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1947400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1661400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1780600</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1730100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1997800</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,55 +1183,58 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>6200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>85100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>112100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>81800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>107700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>438000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>41800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>41600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>27500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1225,68 +1245,71 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>12900</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>20800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>21800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>4200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>51400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>51400</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>10093600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8957100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8779600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9699700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8607600</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8437000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>8493100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>12502500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>12774200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12520600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>10711600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>10927100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>10615100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>11807400</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>557400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>210700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>141200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>535600</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>202500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>135600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>-575000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>698900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>589200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>691400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>490700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>621600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>676600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>674900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-153600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>8400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>12200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>12300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>5900</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>825100</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>837600</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>446300</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>201400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>830500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>922300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>681200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>809000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>833600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>845100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>54000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>59200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>54000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>56900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>51900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>77800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>80200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>75900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>70600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>62000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>60600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>51600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>56300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>502300</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>154600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>91300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>482700</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>148600</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>87800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>-806400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>627800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>535300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>629200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>440800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>573300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>623800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>624500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>141200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>49800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>55000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>135600</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>47900</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>-65400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>181800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>154300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>180600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>126300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>147000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>191900</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>201900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>361200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>104800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>347100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100700</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>-741100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>446000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>381000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>448600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>314600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>426400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>432000</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>422600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>349800</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>110000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>-719300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>426800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>368700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>435400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>309000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>417400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>420700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>408500</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>153600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-12200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-12300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>349800</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>110000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>-719300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>426800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>368700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>435400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>309000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>417400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>420700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>408500</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>349800</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>110000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>-719300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>426800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>368700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>435400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>309000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>417400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>420700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>408500</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,28 +2920,29 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2252200</v>
+        <v>2164400</v>
       </c>
       <c r="E41" s="3">
-        <v>3331700</v>
+        <v>3201700</v>
       </c>
       <c r="F41" s="3">
-        <v>1931500</v>
+        <v>1856200</v>
       </c>
       <c r="G41" s="3">
-        <v>1736400</v>
+        <v>1668700</v>
       </c>
       <c r="H41" s="3">
-        <v>1383500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1460300</v>
+        <v>1329500</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2863,73 +2950,76 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1505100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1723600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1824200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1441000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1216200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1792900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1472000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>507500</v>
+        <v>487700</v>
       </c>
       <c r="E42" s="3">
-        <v>381900</v>
+        <v>367000</v>
       </c>
       <c r="F42" s="3">
-        <v>402700</v>
+        <v>387000</v>
       </c>
       <c r="G42" s="3">
-        <v>408900</v>
+        <v>393000</v>
       </c>
       <c r="H42" s="3">
-        <v>427600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>448400</v>
+        <v>410900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2937,73 +3027,76 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>465200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>529200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>553800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>444100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>526200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>507100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>563400</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5496700</v>
+        <v>5282200</v>
       </c>
       <c r="E43" s="3">
-        <v>4596900</v>
+        <v>4417500</v>
       </c>
       <c r="F43" s="3">
-        <v>4815900</v>
+        <v>4627900</v>
       </c>
       <c r="G43" s="3">
-        <v>4341500</v>
+        <v>4172100</v>
       </c>
       <c r="H43" s="3">
-        <v>5766600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4931100</v>
+        <v>5541600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3011,73 +3104,76 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>6273300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>5819900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6270500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>4759400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>5479800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4751600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>6121400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>312400</v>
+        <v>300200</v>
       </c>
       <c r="E44" s="3">
-        <v>265700</v>
+        <v>255300</v>
       </c>
       <c r="F44" s="3">
-        <v>254300</v>
+        <v>244400</v>
       </c>
       <c r="G44" s="3">
-        <v>268800</v>
+        <v>258300</v>
       </c>
       <c r="H44" s="3">
-        <v>310300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>305100</v>
+        <v>298200</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3085,73 +3181,76 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>337600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>360100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>346900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>310100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>314200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>288400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>327500</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1384600</v>
+        <v>1330500</v>
       </c>
       <c r="E45" s="3">
-        <v>1420900</v>
+        <v>1365400</v>
       </c>
       <c r="F45" s="3">
-        <v>1199800</v>
+        <v>1153000</v>
       </c>
       <c r="G45" s="3">
-        <v>1156200</v>
+        <v>1111100</v>
       </c>
       <c r="H45" s="3">
-        <v>1037900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1170800</v>
+        <v>997400</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3159,73 +3258,76 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1129100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1381800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1252400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1170700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1088300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1027700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1014200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9953500</v>
+        <v>9565100</v>
       </c>
       <c r="E46" s="3">
-        <v>9997100</v>
+        <v>9607000</v>
       </c>
       <c r="F46" s="3">
-        <v>8604200</v>
+        <v>8268400</v>
       </c>
       <c r="G46" s="3">
-        <v>7911900</v>
+        <v>7603200</v>
       </c>
       <c r="H46" s="3">
-        <v>8925900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8315700</v>
+        <v>8577600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3233,73 +3335,76 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>9710300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>9814600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10247800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>8125400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>8624700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>8367800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>9498500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1598400</v>
+        <v>1536000</v>
       </c>
       <c r="E47" s="3">
-        <v>1408400</v>
+        <v>1353500</v>
       </c>
       <c r="F47" s="3">
-        <v>1415700</v>
+        <v>1360500</v>
       </c>
       <c r="G47" s="3">
-        <v>1282800</v>
+        <v>1232800</v>
       </c>
       <c r="H47" s="3">
-        <v>1700100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1750900</v>
+        <v>1633700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3307,73 +3412,76 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>1849500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>2066600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1876800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>920400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>884100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>896500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>934400</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1426100</v>
+        <v>1370400</v>
       </c>
       <c r="E48" s="3">
-        <v>1415700</v>
+        <v>1360500</v>
       </c>
       <c r="F48" s="3">
-        <v>1816300</v>
+        <v>1745500</v>
       </c>
       <c r="G48" s="3">
-        <v>1958500</v>
+        <v>1882100</v>
       </c>
       <c r="H48" s="3">
-        <v>2168200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>709900</v>
+        <v>2083600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3381,73 +3489,76 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>2358700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>837900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>821800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>685600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>699000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>662000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>734800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7046300</v>
+        <v>6771300</v>
       </c>
       <c r="E49" s="3">
-        <v>6686200</v>
+        <v>6425300</v>
       </c>
       <c r="F49" s="3">
-        <v>6686200</v>
+        <v>6425300</v>
       </c>
       <c r="G49" s="3">
-        <v>6681000</v>
+        <v>6420300</v>
       </c>
       <c r="H49" s="3">
-        <v>7335900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7222700</v>
+        <v>7049600</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3455,53 +3566,56 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>7980500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>8524700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>8070800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>7053200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>7112300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>6528900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>7231800</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>373600</v>
+        <v>359100</v>
       </c>
       <c r="E52" s="3">
-        <v>203400</v>
+        <v>195500</v>
       </c>
       <c r="F52" s="3">
-        <v>218000</v>
+        <v>209500</v>
       </c>
       <c r="G52" s="3">
-        <v>176400</v>
+        <v>169600</v>
       </c>
       <c r="H52" s="3">
-        <v>159800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>129700</v>
+        <v>153600</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3677,53 +3797,56 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>173900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>153100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>172300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>139600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>259200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>233400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>390900</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20397800</v>
+        <v>19601900</v>
       </c>
       <c r="E54" s="3">
-        <v>19710800</v>
+        <v>18941600</v>
       </c>
       <c r="F54" s="3">
-        <v>18740300</v>
+        <v>18009100</v>
       </c>
       <c r="G54" s="3">
-        <v>18010700</v>
+        <v>17307900</v>
       </c>
       <c r="H54" s="3">
-        <v>20289900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>18129000</v>
+        <v>19498200</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3825,53 +3951,56 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>22072800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>21396900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>21189500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>16924100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>17579300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>16688500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>18790400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2434900</v>
+        <v>2339900</v>
       </c>
       <c r="E57" s="3">
-        <v>2260500</v>
+        <v>2172300</v>
       </c>
       <c r="F57" s="3">
-        <v>2038400</v>
+        <v>1958900</v>
       </c>
       <c r="G57" s="3">
-        <v>4172400</v>
+        <v>4009500</v>
       </c>
       <c r="H57" s="3">
-        <v>5027600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5077400</v>
+        <v>4831400</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3955,73 +4086,76 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>5469400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5992700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5415200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>4676300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4558600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4435200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4918300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>248100</v>
+        <v>238400</v>
       </c>
       <c r="E58" s="3">
-        <v>849000</v>
+        <v>815900</v>
       </c>
       <c r="F58" s="3">
-        <v>910200</v>
+        <v>874700</v>
       </c>
       <c r="G58" s="3">
-        <v>267800</v>
+        <v>257300</v>
       </c>
       <c r="H58" s="3">
-        <v>1103300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>225200</v>
+        <v>1060200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4029,73 +4163,76 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>265800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1506000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>496200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>1318300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>601400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>845100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6553300</v>
+        <v>6297600</v>
       </c>
       <c r="E59" s="3">
-        <v>6079000</v>
+        <v>5841800</v>
       </c>
       <c r="F59" s="3">
-        <v>6274100</v>
+        <v>6029300</v>
       </c>
       <c r="G59" s="3">
-        <v>3598400</v>
+        <v>3458000</v>
       </c>
       <c r="H59" s="3">
-        <v>3568300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3256900</v>
+        <v>3429100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4103,73 +4240,76 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>3881800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3844000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3910400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3269600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3474800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>3287400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3824300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9236300</v>
+        <v>8875900</v>
       </c>
       <c r="E60" s="3">
-        <v>9188500</v>
+        <v>8830000</v>
       </c>
       <c r="F60" s="3">
-        <v>9222800</v>
+        <v>8862900</v>
       </c>
       <c r="G60" s="3">
-        <v>8038500</v>
+        <v>7724900</v>
       </c>
       <c r="H60" s="3">
-        <v>9699200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8559600</v>
+        <v>9320700</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4177,73 +4317,76 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>10551400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>10102500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10831600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>8442100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>9351800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>8324000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>9587700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6575100</v>
+        <v>6318500</v>
       </c>
       <c r="E61" s="3">
-        <v>6450500</v>
+        <v>6198800</v>
       </c>
       <c r="F61" s="3">
-        <v>5620200</v>
+        <v>5400900</v>
       </c>
       <c r="G61" s="3">
-        <v>6332200</v>
+        <v>6085100</v>
       </c>
       <c r="H61" s="3">
-        <v>5286000</v>
+        <v>5079800</v>
       </c>
       <c r="I61" s="3">
-        <v>4049900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4252,72 +4395,75 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>5750500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4779900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4275200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3917600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3340200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3378300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3613000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>824100</v>
+        <v>791900</v>
       </c>
       <c r="E62" s="3">
-        <v>776300</v>
+        <v>746100</v>
       </c>
       <c r="F62" s="3">
-        <v>854200</v>
+        <v>820900</v>
       </c>
       <c r="G62" s="3">
-        <v>761800</v>
+        <v>732100</v>
       </c>
       <c r="H62" s="3">
-        <v>1001600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>851100</v>
+        <v>962500</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4325,53 +4471,56 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1089600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1004500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1245200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>878300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1098400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>980600</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1348700</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,28 +4747,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16645800</v>
+        <v>15996300</v>
       </c>
       <c r="E66" s="3">
-        <v>16422700</v>
+        <v>15781900</v>
       </c>
       <c r="F66" s="3">
-        <v>15712800</v>
+        <v>15099600</v>
       </c>
       <c r="G66" s="3">
-        <v>15148200</v>
+        <v>14557100</v>
       </c>
       <c r="H66" s="3">
-        <v>16036600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>13504100</v>
+        <v>15410800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4621,53 +4779,56 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>17445700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>15938300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>16407100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>13287900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>13828500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>12721100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>14595200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,28 +5161,31 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3807000</v>
+        <v>3658500</v>
       </c>
       <c r="E72" s="3">
-        <v>3585900</v>
+        <v>3446000</v>
       </c>
       <c r="F72" s="3">
-        <v>3468700</v>
+        <v>3333300</v>
       </c>
       <c r="G72" s="3">
-        <v>3281800</v>
+        <v>3153800</v>
       </c>
       <c r="H72" s="3">
-        <v>4179600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4523200</v>
+        <v>4016500</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5019,53 +5193,56 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4546900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>5338500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>5132900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>4203300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>3846200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>3876500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3539000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,28 +5469,31 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3752000</v>
+        <v>3605600</v>
       </c>
       <c r="E76" s="3">
-        <v>3288100</v>
+        <v>3159800</v>
       </c>
       <c r="F76" s="3">
-        <v>3027600</v>
+        <v>2909400</v>
       </c>
       <c r="G76" s="3">
-        <v>2862500</v>
+        <v>2750800</v>
       </c>
       <c r="H76" s="3">
-        <v>4253300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4624900</v>
+        <v>4087300</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5315,53 +5501,56 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4627100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>5458600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4782400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>3636300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>3750800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>3967400</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>4195200</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>349800</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>110000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>34300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>-719300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>426800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>368700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>435400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>309000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>417400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>420700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>408500</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>268800</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>623800</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>301000</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>930000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>219300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>222500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>178300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>175000</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>158200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>164300</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>269900</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>1018200</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>419300</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>653900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1216400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>329000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1061100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>196300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1082700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>113900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-164000</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-307200</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-142200</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-413100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-241300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-242800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-166100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-185100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-169000</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-260500</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-314500</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-109000</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-446300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-439800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-538300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-199400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-920000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-366900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-334500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,13 +6718,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-305100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6509,11 +6743,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-441100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6527,11 +6761,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-482100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6539,11 +6773,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-461100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6551,16 +6785,19 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-421400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1030600</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>818900</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-149500</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>205500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-920000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>410300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-519500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>139100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-157100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>542300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>56000</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>45700</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>11400</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-127700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-17100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>86100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-120700</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-23600</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-202000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>48100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-965200</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>1568300</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>172300</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>285400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-160500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>287100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>221500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-608100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>356800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>369800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5508600</v>
+        <v>11089000</v>
       </c>
       <c r="E8" s="3">
-        <v>10235300</v>
+        <v>5637900</v>
       </c>
       <c r="F8" s="3">
-        <v>5250300</v>
+        <v>10475400</v>
       </c>
       <c r="G8" s="3">
-        <v>8810000</v>
+        <v>5373500</v>
       </c>
       <c r="H8" s="3">
-        <v>4472300</v>
+        <v>9016700</v>
       </c>
       <c r="I8" s="3">
-        <v>8572700</v>
+        <v>4577300</v>
       </c>
       <c r="J8" s="3">
+        <v>8773800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4420500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7918100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4266500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13201400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7093200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13363400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6684300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13212000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6708200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11202300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5748000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11548600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5960000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11291700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6002600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12482300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6398400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8769100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7571300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7395700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>9489400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8974900</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7748900</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7569200</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7138700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>11250400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11440200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11264600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9540900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>9768000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>9561600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>10484500</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1466200</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1238800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1176900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1599600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1500600</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1267800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1204500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>779500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1951100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1923200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1947400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1661400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1780600</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1730100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1997800</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,58 +1203,61 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>81800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>107700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>83700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>438000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>41800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>41600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>27500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1248,71 +1268,74 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>12900</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>4200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>51400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>51400</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9699700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8607600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8437000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>10561200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9927300</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8809500</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8634900</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>8493100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>12502500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>12774200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>12520600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>10711600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>10927100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>10615100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>11807400</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>535600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>202500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>135600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>527800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>548200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>207200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>-575000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>698900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>589200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>691400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>490700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>621600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>676600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>674900</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-153600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>8400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>12200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>12300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>5900</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,290 +1689,302 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>201400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>830500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>922300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>681200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>809000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>833600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>845100</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>51900</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>56900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>51900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="D22" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>53100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>58200</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>77800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>80200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>75900</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>70600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>62000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>60600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>51600</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>56300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>482700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>148600</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>87800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>494100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>494100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>152100</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>-806400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>627800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>535300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>629200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>440800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>573300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>623800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>624500</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>135600</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>47900</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>52900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>138800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>-65400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>181800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>154300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>180600</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>126300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>147000</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>191900</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>201900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>347100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>363400</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>355200</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>103100</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>-741100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>446000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>381000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>448600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>314600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>426400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>432000</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>422600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>336100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>344000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>108200</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>-719300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>426800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>368700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>435400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>309000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>417400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>420700</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>408500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>153600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-12200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-12300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>336100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>344000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>108200</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>-719300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>426800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>368700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>435400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>309000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>417400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>420700</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>408500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>336100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>344000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>108200</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>-719300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>426800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>368700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>435400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>309000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>417400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>420700</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>408500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,28 +3007,29 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2164400</v>
+        <v>2757200</v>
       </c>
       <c r="E41" s="3">
-        <v>3201700</v>
+        <v>2215100</v>
       </c>
       <c r="F41" s="3">
-        <v>1856200</v>
+        <v>3276800</v>
       </c>
       <c r="G41" s="3">
-        <v>1668700</v>
+        <v>1899700</v>
       </c>
       <c r="H41" s="3">
-        <v>1329500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>1707800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1360700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -2953,73 +3040,76 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1505100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1723600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1824200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1441000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1216200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1792900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1472000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>487700</v>
+        <v>593100</v>
       </c>
       <c r="E42" s="3">
-        <v>367000</v>
+        <v>499200</v>
       </c>
       <c r="F42" s="3">
-        <v>387000</v>
+        <v>375700</v>
       </c>
       <c r="G42" s="3">
-        <v>393000</v>
+        <v>396100</v>
       </c>
       <c r="H42" s="3">
-        <v>410900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>402200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>420600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3030,73 +3120,76 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>465200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>529200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>553800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>444100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>526200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>507100</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>563400</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5282200</v>
+        <v>5348000</v>
       </c>
       <c r="E43" s="3">
-        <v>4417500</v>
+        <v>5406200</v>
       </c>
       <c r="F43" s="3">
-        <v>4627900</v>
+        <v>4521100</v>
       </c>
       <c r="G43" s="3">
-        <v>4172100</v>
+        <v>4736500</v>
       </c>
       <c r="H43" s="3">
-        <v>5541600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>4270000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5671600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3107,73 +3200,76 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>6273300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>5819900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>6270500</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>4759400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>5479800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4751600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>6121400</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300200</v>
+        <v>359300</v>
       </c>
       <c r="E44" s="3">
-        <v>255300</v>
+        <v>307300</v>
       </c>
       <c r="F44" s="3">
-        <v>244400</v>
+        <v>261300</v>
       </c>
       <c r="G44" s="3">
-        <v>258300</v>
+        <v>250100</v>
       </c>
       <c r="H44" s="3">
-        <v>298200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>264400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>305200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3184,73 +3280,76 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>337600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>360100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>346900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>310100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>314200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>288400</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>327500</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1330500</v>
+        <v>1288200</v>
       </c>
       <c r="E45" s="3">
-        <v>1365400</v>
+        <v>1361700</v>
       </c>
       <c r="F45" s="3">
-        <v>1153000</v>
+        <v>1397500</v>
       </c>
       <c r="G45" s="3">
-        <v>1111100</v>
+        <v>1180000</v>
       </c>
       <c r="H45" s="3">
-        <v>997400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1137200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1020800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3261,73 +3360,76 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1129100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1381800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1252400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1170700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1088300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1027700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1014200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9565100</v>
+        <v>10345800</v>
       </c>
       <c r="E46" s="3">
-        <v>9607000</v>
+        <v>9789500</v>
       </c>
       <c r="F46" s="3">
-        <v>8268400</v>
+        <v>9832300</v>
       </c>
       <c r="G46" s="3">
-        <v>7603200</v>
+        <v>8462400</v>
       </c>
       <c r="H46" s="3">
-        <v>8577600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>7781600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8778900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3338,73 +3440,76 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>9710300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>9814600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>10247800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>8125400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>8624700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>8367800</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>9498500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1536000</v>
+        <v>1801700</v>
       </c>
       <c r="E47" s="3">
-        <v>1353500</v>
+        <v>1572000</v>
       </c>
       <c r="F47" s="3">
-        <v>1360500</v>
+        <v>1385200</v>
       </c>
       <c r="G47" s="3">
-        <v>1232800</v>
+        <v>1392400</v>
       </c>
       <c r="H47" s="3">
-        <v>1633700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1261700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1672100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3415,73 +3520,76 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1849500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>2066600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1876800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>920400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>884100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>896500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>934400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1370400</v>
+        <v>1434200</v>
       </c>
       <c r="E48" s="3">
-        <v>1360500</v>
+        <v>1402600</v>
       </c>
       <c r="F48" s="3">
-        <v>1745500</v>
+        <v>1392400</v>
       </c>
       <c r="G48" s="3">
-        <v>1882100</v>
+        <v>1786400</v>
       </c>
       <c r="H48" s="3">
-        <v>2083600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>1926200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2132500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3492,73 +3600,76 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>2358700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>837900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>821800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>685600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>699000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>662000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>734800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6771300</v>
+        <v>7440600</v>
       </c>
       <c r="E49" s="3">
-        <v>6425300</v>
+        <v>6930200</v>
       </c>
       <c r="F49" s="3">
-        <v>6425300</v>
+        <v>6576000</v>
       </c>
       <c r="G49" s="3">
-        <v>6420300</v>
+        <v>6576000</v>
       </c>
       <c r="H49" s="3">
-        <v>7049600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>6570900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7215000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3569,53 +3680,56 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>7980500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>8524700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>8070800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>7053200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>7112300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>6528900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>7231800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,28 +3885,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>359100</v>
+        <v>332800</v>
       </c>
       <c r="E52" s="3">
-        <v>195500</v>
+        <v>367500</v>
       </c>
       <c r="F52" s="3">
-        <v>209500</v>
+        <v>200100</v>
       </c>
       <c r="G52" s="3">
-        <v>169600</v>
+        <v>214400</v>
       </c>
       <c r="H52" s="3">
-        <v>153600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>173500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>157200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3800,53 +3920,56 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>173900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>153100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>172300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>139600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>259200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>233400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>390900</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19601900</v>
+        <v>21355100</v>
       </c>
       <c r="E54" s="3">
-        <v>18941600</v>
+        <v>20061800</v>
       </c>
       <c r="F54" s="3">
-        <v>18009100</v>
+        <v>19386000</v>
       </c>
       <c r="G54" s="3">
-        <v>17307900</v>
+        <v>18431600</v>
       </c>
       <c r="H54" s="3">
-        <v>19498200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>17713900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>19955600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -3954,53 +4080,56 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>22072800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>21396900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>21189500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>16924100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>17579300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>16688500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>18790400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2339900</v>
+        <v>2763300</v>
       </c>
       <c r="E57" s="3">
-        <v>2172300</v>
+        <v>2394800</v>
       </c>
       <c r="F57" s="3">
-        <v>1958900</v>
+        <v>2223300</v>
       </c>
       <c r="G57" s="3">
-        <v>4009500</v>
+        <v>2004900</v>
       </c>
       <c r="H57" s="3">
-        <v>4831400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>4103600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4944800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4089,73 +4220,76 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>5469400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5992700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>5415200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>4676300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4558600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4435200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4918300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>238400</v>
+        <v>231700</v>
       </c>
       <c r="E58" s="3">
-        <v>815900</v>
+        <v>244000</v>
       </c>
       <c r="F58" s="3">
-        <v>874700</v>
+        <v>835000</v>
       </c>
       <c r="G58" s="3">
-        <v>257300</v>
+        <v>895200</v>
       </c>
       <c r="H58" s="3">
-        <v>1060200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>263400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1085100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4166,73 +4300,76 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>265800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1506000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>496200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>1318300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>601400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>845100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6297600</v>
+        <v>6469800</v>
       </c>
       <c r="E59" s="3">
-        <v>5841800</v>
+        <v>6445300</v>
       </c>
       <c r="F59" s="3">
-        <v>6029300</v>
+        <v>5978800</v>
       </c>
       <c r="G59" s="3">
-        <v>3458000</v>
+        <v>6170700</v>
       </c>
       <c r="H59" s="3">
-        <v>3429100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>3539100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3509500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4243,73 +4380,76 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>3881800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3844000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3910400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3269600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3474800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>3287400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3824300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8875900</v>
+        <v>9464900</v>
       </c>
       <c r="E60" s="3">
-        <v>8830000</v>
+        <v>9084100</v>
       </c>
       <c r="F60" s="3">
-        <v>8862900</v>
+        <v>9037100</v>
       </c>
       <c r="G60" s="3">
-        <v>7724900</v>
+        <v>9070800</v>
       </c>
       <c r="H60" s="3">
-        <v>9320700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>7906100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9539400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4320,73 +4460,76 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>10551400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>10102500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>10831600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>8442100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>9351800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>8324000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>9587700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6318500</v>
+        <v>6600500</v>
       </c>
       <c r="E61" s="3">
-        <v>6198800</v>
+        <v>6466800</v>
       </c>
       <c r="F61" s="3">
-        <v>5400900</v>
+        <v>6344300</v>
       </c>
       <c r="G61" s="3">
-        <v>6085100</v>
+        <v>5527600</v>
       </c>
       <c r="H61" s="3">
-        <v>5079800</v>
+        <v>6227900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5198900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4398,72 +4541,75 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>5750500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>4779900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>4275200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3917600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3340200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3378300</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3613000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>791900</v>
+        <v>772700</v>
       </c>
       <c r="E62" s="3">
-        <v>746100</v>
+        <v>810500</v>
       </c>
       <c r="F62" s="3">
-        <v>820900</v>
+        <v>763600</v>
       </c>
       <c r="G62" s="3">
-        <v>732100</v>
+        <v>840100</v>
       </c>
       <c r="H62" s="3">
-        <v>962500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>749300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>985100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4474,53 +4620,56 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1089600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1004500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1245200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>878300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1098400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>980600</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1348700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4905,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15996300</v>
+        <v>16848300</v>
       </c>
       <c r="E66" s="3">
-        <v>15781900</v>
+        <v>16371600</v>
       </c>
       <c r="F66" s="3">
-        <v>15099600</v>
+        <v>16152100</v>
       </c>
       <c r="G66" s="3">
-        <v>14557100</v>
+        <v>15453900</v>
       </c>
       <c r="H66" s="3">
-        <v>15410800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>14898600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>15772400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4782,53 +4940,56 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>17445700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>15938300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>16407100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>13287900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>13828500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>12721100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>14595200</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3658500</v>
+        <v>4075000</v>
       </c>
       <c r="E72" s="3">
-        <v>3446000</v>
+        <v>3744300</v>
       </c>
       <c r="F72" s="3">
-        <v>3333300</v>
+        <v>3526900</v>
       </c>
       <c r="G72" s="3">
-        <v>3153800</v>
+        <v>3411500</v>
       </c>
       <c r="H72" s="3">
-        <v>4016500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>3227800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4110800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5196,53 +5370,56 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>4546900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>5338500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>5132900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>4203300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>3846200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>3876500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3539000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,28 +5655,31 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3605600</v>
+        <v>4506800</v>
       </c>
       <c r="E76" s="3">
-        <v>3159800</v>
+        <v>3690200</v>
       </c>
       <c r="F76" s="3">
-        <v>2909400</v>
+        <v>3233900</v>
       </c>
       <c r="G76" s="3">
-        <v>2750800</v>
+        <v>2977700</v>
       </c>
       <c r="H76" s="3">
-        <v>4087300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>2815400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4183200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5504,53 +5690,56 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4627100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>5458600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4782400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>3636300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>3750800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>3967400</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>4195200</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>336100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>105700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>344000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>108200</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>-719300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>426800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>368700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>435400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>309000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>417400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>420700</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>408500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>930000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>219300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>222500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>178300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>175000</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>158200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>164300</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>653900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1216400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>329000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1061100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>196300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1082700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>113900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-413100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-241300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-242800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-166100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-185100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-169000</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-446300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-439800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-538300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-199400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-920000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-366900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-334500</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6746,11 +6980,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-441100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6764,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-482100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6776,11 +7010,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-461100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6788,16 +7022,19 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-421400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>205500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-920000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>410300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-519500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>139100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-157100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>542300</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-127700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-17100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>86100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-120700</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-23600</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-202000</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>48100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>285400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-160500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>287100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>221500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-608100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>356800</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>369800</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11089000</v>
+        <v>6697100</v>
       </c>
       <c r="E8" s="3">
-        <v>5637900</v>
+        <v>11493100</v>
       </c>
       <c r="F8" s="3">
-        <v>10475400</v>
+        <v>5843300</v>
       </c>
       <c r="G8" s="3">
-        <v>5373500</v>
+        <v>10857200</v>
       </c>
       <c r="H8" s="3">
-        <v>9016700</v>
+        <v>5569300</v>
       </c>
       <c r="I8" s="3">
-        <v>4577300</v>
+        <v>9345300</v>
       </c>
       <c r="J8" s="3">
+        <v>4744100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8773800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4420500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7918100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4266500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13201400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7093200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13363400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6684300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13212000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6708200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11202300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5748000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11548600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5960000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11291700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6002600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12482300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6398400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>9489400</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8974900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7748900</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9835200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9301900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8031300</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7569200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7138700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>11250400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11440200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11264600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>9540900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>9768000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9561600</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>10484500</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1599600</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1500600</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1267800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1657900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1555300</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1204500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>779500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>1951100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1923200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1947400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1661400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1780600</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1730100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1997800</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,61 +1222,64 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-43900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>83700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>86800</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>110200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>438000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>41800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>41600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>27500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1271,74 +1290,77 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>12900</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>26500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>20400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>21400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>4200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>51400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>51400</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>10561200</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>9927300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8809500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10946100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10289100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9130500</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>8634900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>8493100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>12502500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12774200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>12520600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>10711600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>10927100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10615100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>11807400</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>527800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>548200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>207200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>547000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>568100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>214800</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>138800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>-575000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>698900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>589200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>691400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>490700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>621600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>676600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>674900</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,108 +1615,112 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>23500</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-153600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>22000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>8400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>12200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>12300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>5900</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="E21" s="3">
+        <v>1124700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>841100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+      <c r="I21" s="3">
+        <v>853800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1692,299 +1728,311 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>201400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>830500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>922300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>681200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>809000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>833600</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>845100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>57200</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>60300</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>53100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>58200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>53100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>77800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>80200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>75900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>70600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>62000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>60600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>51600</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>56300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>494100</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>494100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>152100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>512100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>512100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>157600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>89800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>-806400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>627800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>535300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>629200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>440800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>573300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>623800</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>624500</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>130700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>138800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>49000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>135400</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>143900</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>50800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>54100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>-65400</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>181800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>154300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>180600</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>126300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>147000</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>191900</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>201900</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>363400</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>355200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>103100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>376600</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>368200</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>106900</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>35700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>-741100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>446000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>381000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>448600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>314600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>426400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>432000</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>422600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>365400</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>344000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>108200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>356500</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>33700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>-719300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>426800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>368700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>435400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>309000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>417400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>420700</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>408500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>153600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-8400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-12200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-12300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>365400</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>344000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>108200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>356500</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>33700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>-719300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>426800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>368700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>435400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>309000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>417400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>420700</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>408500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>365400</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>344000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>108200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>356500</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>33700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>-719300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>426800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>368700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>435400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>309000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>417400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>420700</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>408500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,28 +3093,29 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2757200</v>
+        <v>2857700</v>
       </c>
       <c r="E41" s="3">
-        <v>2215100</v>
+        <v>2295900</v>
       </c>
       <c r="F41" s="3">
-        <v>3276800</v>
+        <v>3396200</v>
       </c>
       <c r="G41" s="3">
-        <v>1899700</v>
+        <v>1968900</v>
       </c>
       <c r="H41" s="3">
-        <v>1707800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1360700</v>
+        <v>1770000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3043,73 +3129,76 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1505100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1723600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1824200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1441000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1216200</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1792900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1472000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>593100</v>
+        <v>614700</v>
       </c>
       <c r="E42" s="3">
-        <v>499200</v>
+        <v>517400</v>
       </c>
       <c r="F42" s="3">
-        <v>375700</v>
+        <v>389300</v>
       </c>
       <c r="G42" s="3">
-        <v>396100</v>
+        <v>410500</v>
       </c>
       <c r="H42" s="3">
-        <v>402200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>420600</v>
+        <v>416900</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3123,73 +3212,76 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>465200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>529200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>553800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>444100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>526200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>507100</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>563400</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5348000</v>
+        <v>5542900</v>
       </c>
       <c r="E43" s="3">
-        <v>5406200</v>
+        <v>5603200</v>
       </c>
       <c r="F43" s="3">
-        <v>4521100</v>
+        <v>4685900</v>
       </c>
       <c r="G43" s="3">
-        <v>4736500</v>
+        <v>4909100</v>
       </c>
       <c r="H43" s="3">
-        <v>4270000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5671600</v>
+        <v>4425600</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3203,73 +3295,76 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>6273300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5819900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>6270500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>4759400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>5479800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>4751600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>6121400</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>359300</v>
+        <v>372400</v>
       </c>
       <c r="E44" s="3">
-        <v>307300</v>
+        <v>318500</v>
       </c>
       <c r="F44" s="3">
-        <v>261300</v>
+        <v>270800</v>
       </c>
       <c r="G44" s="3">
-        <v>250100</v>
+        <v>259200</v>
       </c>
       <c r="H44" s="3">
-        <v>264400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>305200</v>
+        <v>274000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3283,73 +3378,76 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>337600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>360100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>346900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>310100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>314200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>288400</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>327500</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1288200</v>
+        <v>1335200</v>
       </c>
       <c r="E45" s="3">
-        <v>1361700</v>
+        <v>1411400</v>
       </c>
       <c r="F45" s="3">
-        <v>1397500</v>
+        <v>1448400</v>
       </c>
       <c r="G45" s="3">
-        <v>1180000</v>
+        <v>1223000</v>
       </c>
       <c r="H45" s="3">
-        <v>1137200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1020800</v>
+        <v>1178600</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3363,73 +3461,76 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1129100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1381800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1252400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1170700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1088300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1027700</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1014200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10345800</v>
+        <v>10722800</v>
       </c>
       <c r="E46" s="3">
-        <v>9789500</v>
+        <v>10146200</v>
       </c>
       <c r="F46" s="3">
-        <v>9832300</v>
+        <v>10190700</v>
       </c>
       <c r="G46" s="3">
-        <v>8462400</v>
+        <v>8770800</v>
       </c>
       <c r="H46" s="3">
-        <v>7781600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8778900</v>
+        <v>8065100</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3443,73 +3544,76 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>9710300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9814600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>10247800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>8125400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>8624700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>8367800</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>9498500</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1801700</v>
+        <v>1867400</v>
       </c>
       <c r="E47" s="3">
-        <v>1572000</v>
+        <v>1629300</v>
       </c>
       <c r="F47" s="3">
-        <v>1385200</v>
+        <v>1435700</v>
       </c>
       <c r="G47" s="3">
-        <v>1392400</v>
+        <v>1443100</v>
       </c>
       <c r="H47" s="3">
-        <v>1261700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1672100</v>
+        <v>1307700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3523,73 +3627,76 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1849500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2066600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>1876800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>920400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>884100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>896500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>934400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1434200</v>
+        <v>1486500</v>
       </c>
       <c r="E48" s="3">
-        <v>1402600</v>
+        <v>1453700</v>
       </c>
       <c r="F48" s="3">
-        <v>1392400</v>
+        <v>1443100</v>
       </c>
       <c r="G48" s="3">
-        <v>1786400</v>
+        <v>1851500</v>
       </c>
       <c r="H48" s="3">
-        <v>1926200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2132500</v>
+        <v>1996400</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3603,73 +3710,76 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>2358700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>837900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>821800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>685600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>699000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>662000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>734800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7440600</v>
+        <v>7711800</v>
       </c>
       <c r="E49" s="3">
-        <v>6930200</v>
+        <v>7182800</v>
       </c>
       <c r="F49" s="3">
-        <v>6576000</v>
+        <v>6815600</v>
       </c>
       <c r="G49" s="3">
-        <v>6576000</v>
+        <v>6815600</v>
       </c>
       <c r="H49" s="3">
-        <v>6570900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7215000</v>
+        <v>6810300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3683,53 +3793,56 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>7980500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>8524700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>8070800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>7053200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>7112300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>6528900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>7231800</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,28 +4004,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>332800</v>
+        <v>344900</v>
       </c>
       <c r="E52" s="3">
-        <v>367500</v>
+        <v>380900</v>
       </c>
       <c r="F52" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="G52" s="3">
-        <v>214400</v>
+        <v>222200</v>
       </c>
       <c r="H52" s="3">
-        <v>173500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>157200</v>
+        <v>179900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3923,53 +4042,56 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>173900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>153100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>172300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>139600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>259200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>233400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>390900</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,28 +4170,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21355100</v>
+        <v>22133400</v>
       </c>
       <c r="E54" s="3">
-        <v>20061800</v>
+        <v>20792900</v>
       </c>
       <c r="F54" s="3">
-        <v>19386000</v>
+        <v>20092500</v>
       </c>
       <c r="G54" s="3">
-        <v>18431600</v>
+        <v>19103200</v>
       </c>
       <c r="H54" s="3">
-        <v>17713900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>19955600</v>
+        <v>18359500</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4083,53 +4208,56 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>22072800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>21396900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>21189500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>16924100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>17579300</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>16688500</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>18790400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,28 +4317,29 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2763300</v>
+        <v>2864000</v>
       </c>
       <c r="E57" s="3">
-        <v>2394800</v>
+        <v>2482100</v>
       </c>
       <c r="F57" s="3">
-        <v>2223300</v>
+        <v>2304300</v>
       </c>
       <c r="G57" s="3">
-        <v>2004900</v>
+        <v>2077900</v>
       </c>
       <c r="H57" s="3">
-        <v>4103600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4944800</v>
+        <v>4253200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4223,73 +4353,76 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5469400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5992700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>5415200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>4676300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4558600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4435200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>4918300</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>231700</v>
+        <v>240200</v>
       </c>
       <c r="E58" s="3">
-        <v>244000</v>
+        <v>252900</v>
       </c>
       <c r="F58" s="3">
-        <v>835000</v>
+        <v>865400</v>
       </c>
       <c r="G58" s="3">
-        <v>895200</v>
+        <v>927900</v>
       </c>
       <c r="H58" s="3">
-        <v>263400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1085100</v>
+        <v>273000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4303,73 +4436,76 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>265800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>1506000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>496200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>1318300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>601400</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>845100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6469800</v>
+        <v>6705600</v>
       </c>
       <c r="E59" s="3">
-        <v>6445300</v>
+        <v>6680200</v>
       </c>
       <c r="F59" s="3">
-        <v>5978800</v>
+        <v>6196700</v>
       </c>
       <c r="G59" s="3">
-        <v>6170700</v>
+        <v>6395600</v>
       </c>
       <c r="H59" s="3">
-        <v>3539100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3509500</v>
+        <v>3668100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4383,73 +4519,76 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>3881800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3844000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3910400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3269600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>3474800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3287400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3824300</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9464900</v>
+        <v>9809800</v>
       </c>
       <c r="E60" s="3">
-        <v>9084100</v>
+        <v>9415100</v>
       </c>
       <c r="F60" s="3">
-        <v>9037100</v>
+        <v>9366500</v>
       </c>
       <c r="G60" s="3">
-        <v>9070800</v>
+        <v>9401400</v>
       </c>
       <c r="H60" s="3">
-        <v>7906100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9539400</v>
+        <v>8194200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4463,73 +4602,76 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>10551400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10102500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>10831600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>8442100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>9351800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>8324000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>9587700</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6600500</v>
+        <v>6841000</v>
       </c>
       <c r="E61" s="3">
-        <v>6466800</v>
+        <v>6702400</v>
       </c>
       <c r="F61" s="3">
-        <v>6344300</v>
+        <v>6575500</v>
       </c>
       <c r="G61" s="3">
-        <v>5527600</v>
+        <v>5729100</v>
       </c>
       <c r="H61" s="3">
-        <v>6227900</v>
+        <v>6454900</v>
       </c>
       <c r="I61" s="3">
-        <v>5198900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4544,72 +4686,75 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>5750500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4779900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>4275200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>3917600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3340200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3378300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>3613000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>772700</v>
+        <v>800900</v>
       </c>
       <c r="E62" s="3">
-        <v>810500</v>
+        <v>840100</v>
       </c>
       <c r="F62" s="3">
-        <v>763600</v>
+        <v>791400</v>
       </c>
       <c r="G62" s="3">
-        <v>840100</v>
+        <v>870700</v>
       </c>
       <c r="H62" s="3">
-        <v>749300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>985100</v>
+        <v>776600</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4623,53 +4768,56 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1089600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1004500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1245200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>878300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>1098400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>980600</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1348700</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,28 +5062,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16848300</v>
+        <v>17462300</v>
       </c>
       <c r="E66" s="3">
-        <v>16371600</v>
+        <v>16968200</v>
       </c>
       <c r="F66" s="3">
-        <v>16152100</v>
+        <v>16740700</v>
       </c>
       <c r="G66" s="3">
-        <v>15453900</v>
+        <v>16017100</v>
       </c>
       <c r="H66" s="3">
-        <v>14898600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>15772400</v>
+        <v>15441500</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -4943,53 +5100,56 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>17445700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>15938300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>16407100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>13287900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>13828500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>12721100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>14595200</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,28 +5508,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4075000</v>
+        <v>4223500</v>
       </c>
       <c r="E72" s="3">
-        <v>3744300</v>
+        <v>3880700</v>
       </c>
       <c r="F72" s="3">
-        <v>3526900</v>
+        <v>3655400</v>
       </c>
       <c r="G72" s="3">
-        <v>3411500</v>
+        <v>3535800</v>
       </c>
       <c r="H72" s="3">
-        <v>3227800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4110800</v>
+        <v>3345400</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5373,53 +5546,56 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>4546900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>5338500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>5132900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>4203300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>3846200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3876500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>3539000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,28 +5840,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4506800</v>
+        <v>4671100</v>
       </c>
       <c r="E76" s="3">
-        <v>3690200</v>
+        <v>3824700</v>
       </c>
       <c r="F76" s="3">
-        <v>3233900</v>
+        <v>3351700</v>
       </c>
       <c r="G76" s="3">
-        <v>2977700</v>
+        <v>3086200</v>
       </c>
       <c r="H76" s="3">
-        <v>2815400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4183200</v>
+        <v>2918000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5693,53 +5878,56 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4627100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>5458600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4782400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>3636300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>3750800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3967400</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>4195200</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>365400</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>344000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>108200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>378800</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>356500</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>33700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>-719300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>426800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>368700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>435400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>309000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>417400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>420700</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>408500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+        <v>553300</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>274000</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+        <v>635900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>930000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>219300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>222500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>178300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>175000</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>158200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>164300</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+        <v>1095000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>275100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+        <v>1037900</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>653900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1216400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>329000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1061100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>196300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1082700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>113900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+        <v>-365000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-167200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-313200</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-413100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-241300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-242800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-166100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-185100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-169000</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-408400</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-265600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-446300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-439800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-538300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-199400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-920000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-366900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-334500</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-311100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-311100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6983,11 +7216,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-441100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7001,11 +7234,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-482100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7013,11 +7246,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-461100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7025,16 +7258,19 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-421400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+        <v>-1173300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>-1050600</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+        <v>834800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>205500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-920000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>410300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-519500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>139100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-157100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>542300</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+        <v>153400</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>57100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+        <v>46600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-127700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>86100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-120700</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-23600</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-202000</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>48100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+        <v>-333300</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-983900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+        <v>1598600</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>285400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-160500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>287100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>221500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-608100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>356800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>369800</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6697100</v>
+        <v>13014300</v>
       </c>
       <c r="E8" s="3">
-        <v>11493100</v>
+        <v>6816800</v>
       </c>
       <c r="F8" s="3">
-        <v>5843300</v>
+        <v>11698400</v>
       </c>
       <c r="G8" s="3">
-        <v>10857200</v>
+        <v>5947700</v>
       </c>
       <c r="H8" s="3">
-        <v>5569300</v>
+        <v>11051100</v>
       </c>
       <c r="I8" s="3">
-        <v>9345300</v>
+        <v>5668800</v>
       </c>
       <c r="J8" s="3">
+        <v>9512300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4744100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8773800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4420500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7918100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4266500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13201400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7093200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13363400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6684300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13212000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6708200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11202300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5748000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11548600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5960000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11291700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6002600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12482300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6398400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9835200</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9301900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8031300</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>11120100</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10010900</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9468100</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8174700</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7569200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7138700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>11250400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11440200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>11264600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>9540900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>9768000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>9561600</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>10484500</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1657900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1555300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1314000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1894300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1687500</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1337500</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1204500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>779500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>1951100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1923200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1947400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1661400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1780600</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1730100</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1997800</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,64 +1242,67 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>86800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="D14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>110200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>438000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>41800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>41600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>27500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
@@ -1293,77 +1313,80 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>12900</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>21400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>4200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>22600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>51400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>51400</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10946100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10289100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9130500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>12301400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11141600</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10472900</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9293600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>8634900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>8493100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>12502500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>12774200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>12520600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>10711600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>10927100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>10615100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>11807400</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>547000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>568100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>214800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>712900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>556800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>578300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>138800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>-575000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>698900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>589200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>691400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>490700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>621600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>676600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>674900</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,114 +1649,118 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="D20" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-153600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>22000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>8400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>12200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>12300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>5900</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1124700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>841100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>853800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>1029500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1144700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>856100</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>869100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1731,308 +1768,320 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>201400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>830500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>922300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>681200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>809000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>833600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>845100</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>59200</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="D22" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>60300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>53100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>77800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>80200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>75900</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>70600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>62000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>60600</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>51600</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>56300</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>512100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>512100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>157600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>661200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>521200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>521200</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>89800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>-806400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>627800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>535300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>629200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>440800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>573300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>623800</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>624500</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>135400</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>143900</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>50800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>137800</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>146500</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>54100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>-65400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>181800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>154300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>180600</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>126300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>147000</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>191900</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>201900</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>376600</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>368200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>106900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>482500</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>383400</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>374800</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>35700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>-741100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>446000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>381000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>448600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>314600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>426400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>432000</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>422600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>378800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>356500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>112100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>385500</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>362900</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>33700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>-719300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>426800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>368700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>435400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>309000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>417400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>420700</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>408500</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="D32" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>153600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-22000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-8400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-12200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-12300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>378800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>356500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>112100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>385500</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>362900</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>33700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>-719300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>426800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>368700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>435400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>309000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>417400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>420700</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>408500</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>378800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>356500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>112100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>385500</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>362900</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>33700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>-719300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>426800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>368700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>435400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>309000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>417400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>420700</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>408500</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,28 +3180,29 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2857700</v>
+        <v>2202300</v>
       </c>
       <c r="E41" s="3">
-        <v>2295900</v>
+        <v>2908700</v>
       </c>
       <c r="F41" s="3">
-        <v>3396200</v>
+        <v>2336900</v>
       </c>
       <c r="G41" s="3">
-        <v>1968900</v>
+        <v>3456800</v>
       </c>
       <c r="H41" s="3">
-        <v>1770000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>2004100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1801700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3132,73 +3219,76 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1505100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1723600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1824200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1441000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1216200</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1792900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1472000</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>614700</v>
+        <v>691400</v>
       </c>
       <c r="E42" s="3">
-        <v>517400</v>
+        <v>625700</v>
       </c>
       <c r="F42" s="3">
-        <v>389300</v>
+        <v>526600</v>
       </c>
       <c r="G42" s="3">
-        <v>410500</v>
+        <v>396300</v>
       </c>
       <c r="H42" s="3">
-        <v>416900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>417800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>424300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3215,73 +3305,76 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>465200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>529200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>553800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>444100</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>526200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>507100</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>563400</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5542900</v>
+        <v>6271900</v>
       </c>
       <c r="E43" s="3">
-        <v>5603200</v>
+        <v>5641900</v>
       </c>
       <c r="F43" s="3">
-        <v>4685900</v>
+        <v>5703300</v>
       </c>
       <c r="G43" s="3">
-        <v>4909100</v>
+        <v>4769600</v>
       </c>
       <c r="H43" s="3">
-        <v>4425600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>4996800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4504700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3298,73 +3391,76 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>6273300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>5819900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>6270500</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>4759400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>5479800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>4751600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>6121400</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>372400</v>
+        <v>376900</v>
       </c>
       <c r="E44" s="3">
-        <v>318500</v>
+        <v>379100</v>
       </c>
       <c r="F44" s="3">
-        <v>270800</v>
+        <v>324100</v>
       </c>
       <c r="G44" s="3">
-        <v>259200</v>
+        <v>275700</v>
       </c>
       <c r="H44" s="3">
-        <v>274000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>263800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>278900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3381,73 +3477,76 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>337600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>360100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>346900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>310100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>314200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>288400</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>327500</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1335200</v>
+        <v>1393500</v>
       </c>
       <c r="E45" s="3">
-        <v>1411400</v>
+        <v>1359000</v>
       </c>
       <c r="F45" s="3">
-        <v>1448400</v>
+        <v>1436600</v>
       </c>
       <c r="G45" s="3">
-        <v>1223000</v>
+        <v>1474300</v>
       </c>
       <c r="H45" s="3">
-        <v>1178600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1244900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1199700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3464,73 +3563,76 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1129100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1381800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1252400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1170700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1088300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1027700</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1014200</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10722800</v>
+        <v>10935900</v>
       </c>
       <c r="E46" s="3">
-        <v>10146200</v>
+        <v>10914400</v>
       </c>
       <c r="F46" s="3">
-        <v>10190700</v>
+        <v>10327500</v>
       </c>
       <c r="G46" s="3">
-        <v>8770800</v>
+        <v>10372700</v>
       </c>
       <c r="H46" s="3">
-        <v>8065100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>8927500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8209200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3547,73 +3649,76 @@
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>9710300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>9814600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>10247800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>8125400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>8624700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>8367800</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>9498500</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1867400</v>
+        <v>2037500</v>
       </c>
       <c r="E47" s="3">
-        <v>1629300</v>
+        <v>1900700</v>
       </c>
       <c r="F47" s="3">
-        <v>1435700</v>
+        <v>1658400</v>
       </c>
       <c r="G47" s="3">
-        <v>1443100</v>
+        <v>1461400</v>
       </c>
       <c r="H47" s="3">
-        <v>1307700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1468900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1331000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3630,73 +3735,76 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1849500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2066600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>1876800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>920400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>884100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>896500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>934400</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1486500</v>
+        <v>1457000</v>
       </c>
       <c r="E48" s="3">
-        <v>1453700</v>
+        <v>1513000</v>
       </c>
       <c r="F48" s="3">
-        <v>1443100</v>
+        <v>1479700</v>
       </c>
       <c r="G48" s="3">
-        <v>1851500</v>
+        <v>1468900</v>
       </c>
       <c r="H48" s="3">
-        <v>1996400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>1884600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2032100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3713,73 +3821,76 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>2358700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>837900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>821800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>685600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>699000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>662000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>734800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7711800</v>
+        <v>7481200</v>
       </c>
       <c r="E49" s="3">
-        <v>7182800</v>
+        <v>7849500</v>
       </c>
       <c r="F49" s="3">
-        <v>6815600</v>
+        <v>7311100</v>
       </c>
       <c r="G49" s="3">
-        <v>6815600</v>
+        <v>6937400</v>
       </c>
       <c r="H49" s="3">
-        <v>6810300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>6937400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6932000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3796,53 +3907,56 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>7980500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>8524700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>8070800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>7053200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>7112300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>6528900</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>7231800</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,28 +4124,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344900</v>
+        <v>241200</v>
       </c>
       <c r="E52" s="3">
-        <v>380900</v>
+        <v>351100</v>
       </c>
       <c r="F52" s="3">
-        <v>207400</v>
+        <v>387700</v>
       </c>
       <c r="G52" s="3">
-        <v>222200</v>
+        <v>211100</v>
       </c>
       <c r="H52" s="3">
-        <v>179900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>226100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>183100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4045,53 +4165,56 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>173900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>153100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>172300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>139600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>259200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>233400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>390900</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,28 +4296,31 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22133400</v>
+        <v>22152900</v>
       </c>
       <c r="E54" s="3">
-        <v>20792900</v>
+        <v>22528700</v>
       </c>
       <c r="F54" s="3">
-        <v>20092500</v>
+        <v>21164300</v>
       </c>
       <c r="G54" s="3">
-        <v>19103200</v>
+        <v>20451400</v>
       </c>
       <c r="H54" s="3">
-        <v>18359500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>19444500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>18687400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4211,53 +4337,56 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>22072800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>21396900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>21189500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>16924100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>17579300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>16688500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>18790400</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,28 +4448,29 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2864000</v>
+        <v>2980900</v>
       </c>
       <c r="E57" s="3">
-        <v>2482100</v>
+        <v>2915200</v>
       </c>
       <c r="F57" s="3">
-        <v>2304300</v>
+        <v>2526400</v>
       </c>
       <c r="G57" s="3">
-        <v>2077900</v>
+        <v>2345500</v>
       </c>
       <c r="H57" s="3">
-        <v>4253200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>2115000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4329100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4356,73 +4487,76 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>5469400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>5992700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>5415200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>4676300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4558600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4435200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>4918300</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240200</v>
+        <v>805500</v>
       </c>
       <c r="E58" s="3">
-        <v>252900</v>
+        <v>244500</v>
       </c>
       <c r="F58" s="3">
-        <v>865400</v>
+        <v>257400</v>
       </c>
       <c r="G58" s="3">
-        <v>927900</v>
+        <v>880900</v>
       </c>
       <c r="H58" s="3">
-        <v>273000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>944400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>277800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4439,73 +4573,76 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1200200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>265800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>1506000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>496200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>1318300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>601400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>845100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6705600</v>
+        <v>6803900</v>
       </c>
       <c r="E59" s="3">
-        <v>6680200</v>
+        <v>6825400</v>
       </c>
       <c r="F59" s="3">
-        <v>6196700</v>
+        <v>6799500</v>
       </c>
       <c r="G59" s="3">
-        <v>6395600</v>
+        <v>6307400</v>
       </c>
       <c r="H59" s="3">
-        <v>3668100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>6509900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3733600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4522,73 +4659,76 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>3881800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3844000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3910400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3269600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>3474800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3287400</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>3824300</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9809800</v>
+        <v>10590200</v>
       </c>
       <c r="E60" s="3">
-        <v>9415100</v>
+        <v>9985000</v>
       </c>
       <c r="F60" s="3">
-        <v>9366500</v>
+        <v>9583300</v>
       </c>
       <c r="G60" s="3">
-        <v>9401400</v>
+        <v>9533800</v>
       </c>
       <c r="H60" s="3">
-        <v>8194200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>9569300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8340600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4605,73 +4745,76 @@
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>10551400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>10102500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>10831600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>8442100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>9351800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>8324000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>9587700</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6841000</v>
+        <v>6296600</v>
       </c>
       <c r="E61" s="3">
-        <v>6702400</v>
+        <v>6963200</v>
       </c>
       <c r="F61" s="3">
-        <v>6575500</v>
+        <v>6822200</v>
       </c>
       <c r="G61" s="3">
-        <v>5729100</v>
+        <v>6692900</v>
       </c>
       <c r="H61" s="3">
-        <v>6454900</v>
+        <v>5831400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>6570200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4689,72 +4832,75 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>5750500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>4779900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>4275200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3917600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3340200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3378300</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>3613000</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800900</v>
+        <v>850800</v>
       </c>
       <c r="E62" s="3">
-        <v>840100</v>
+        <v>815200</v>
       </c>
       <c r="F62" s="3">
-        <v>791400</v>
+        <v>855100</v>
       </c>
       <c r="G62" s="3">
-        <v>870700</v>
+        <v>805500</v>
       </c>
       <c r="H62" s="3">
-        <v>776600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>886300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>790400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4771,53 +4917,56 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1089600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1004500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1245200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>878300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>1098400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>980600</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1348700</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,28 +5220,31 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17462300</v>
+        <v>17741900</v>
       </c>
       <c r="E66" s="3">
-        <v>16968200</v>
+        <v>17774200</v>
       </c>
       <c r="F66" s="3">
-        <v>16740700</v>
+        <v>17271300</v>
       </c>
       <c r="G66" s="3">
-        <v>16017100</v>
+        <v>17039800</v>
       </c>
       <c r="H66" s="3">
-        <v>15441500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>16303200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>15717400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5103,53 +5261,56 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>17445700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>15938300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>16407100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>13287900</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>13828500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>12721100</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>14595200</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,28 +5682,31 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4223500</v>
+        <v>4369000</v>
       </c>
       <c r="E72" s="3">
-        <v>3880700</v>
+        <v>4299000</v>
       </c>
       <c r="F72" s="3">
-        <v>3655400</v>
+        <v>3950100</v>
       </c>
       <c r="G72" s="3">
-        <v>3535800</v>
+        <v>3720700</v>
       </c>
       <c r="H72" s="3">
-        <v>3345400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>3599000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3405200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5549,53 +5723,56 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>4546900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>5338500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>5132900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>4203300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>3846200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3876500</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>3539000</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,28 +6026,31 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4671100</v>
+        <v>4411000</v>
       </c>
       <c r="E76" s="3">
-        <v>3824700</v>
+        <v>4754500</v>
       </c>
       <c r="F76" s="3">
-        <v>3351700</v>
+        <v>3893000</v>
       </c>
       <c r="G76" s="3">
-        <v>3086200</v>
+        <v>3411600</v>
       </c>
       <c r="H76" s="3">
-        <v>2918000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>3141300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2970100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -5881,53 +6067,56 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4627100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>5458600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4782400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>3636300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>3750800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3967400</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>4195200</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>378800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>356500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>112100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>473800</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>385500</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>362900</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>33700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>-719300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>426800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>368700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>435400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>309000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>417400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>420700</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>408500</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>553300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>274000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>635900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="D83" s="3">
+        <v>283200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>563200</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>278900</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>647200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>930000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>219300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>222500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>178300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>175000</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>158200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>164300</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1095000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>275100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1037900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="D89" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1114600</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>280000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1056400</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>653900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1216400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>329000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1061100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>196300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1082700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>113900</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-215000</v>
       </c>
       <c r="E91" s="3">
-        <v>-365000</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>-187000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-158000</v>
       </c>
       <c r="G91" s="3">
-        <v>-167200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>-159000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-137000</v>
       </c>
       <c r="I91" s="3">
-        <v>-313200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-413100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-241300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-242800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-166100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-185100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-169000</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-408400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-265600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-320600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="D94" s="3">
+        <v>-300500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-415700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-270300</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-326300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-446300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-439800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-538300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-199400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-920000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-366900</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-334500</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,25 +7419,26 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-379100</v>
       </c>
       <c r="E96" s="3">
-        <v>-311100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-316600</v>
       </c>
       <c r="G96" s="3">
-        <v>-311100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-316600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7219,11 +7453,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-441100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7237,11 +7471,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-482100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7249,11 +7483,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-461100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7261,16 +7495,19 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-421400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1173300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1050600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>834800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="D100" s="3">
+        <v>-563200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1194300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1069400</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>849700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>205500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-920000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>410300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-519500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>139100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-157100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>542300</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
-        <v>153400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>57100</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>46600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="D101" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>156200</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
+        <v>58200</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-127700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-17100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>86100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-120700</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-23600</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-202000</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>48100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-333300</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-983900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1598600</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="D102" s="3">
+        <v>-650400</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-339200</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1001500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1627200</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>285400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-160500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>287100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>221500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-608100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>356800</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>369800</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13014300</v>
+        <v>6532800</v>
       </c>
       <c r="E8" s="3">
-        <v>6816800</v>
+        <v>13101300</v>
       </c>
       <c r="F8" s="3">
-        <v>11698400</v>
+        <v>6862400</v>
       </c>
       <c r="G8" s="3">
-        <v>5947700</v>
+        <v>11776600</v>
       </c>
       <c r="H8" s="3">
-        <v>11051100</v>
+        <v>5987500</v>
       </c>
       <c r="I8" s="3">
-        <v>5668800</v>
+        <v>11125000</v>
       </c>
       <c r="J8" s="3">
+        <v>5706700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9512300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4744100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8773800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4420500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7918100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4266500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13201400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7093200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13363400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6684300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13212000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6708200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11202300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5748000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11548600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5960000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11291700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6002600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>12482300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6398400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>11120100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10010900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9468100</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11194400</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10077800</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9531400</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>8174700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7569200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7138700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11250400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>11440200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>11264600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>9540900</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>9768000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>9561600</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>10484500</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1894300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1687500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1583000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1906900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1698800</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1593600</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>1337500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>1204500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>779500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1951100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>1923200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>1947400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>1661400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1780600</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1730100</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>1997800</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,67 +1262,70 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>9700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>88300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>110200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>438000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>41800</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>41600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>27500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
@@ -1316,80 +1336,83 @@
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
         <v>12900</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>23700</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>28000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>28200</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>12900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>21400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>4200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>22600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>51400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>51400</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>12301400</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>11141600</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10472900</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12383700</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11216100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10542900</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>9293600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>8634900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>8493100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12502500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>12774200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>12520600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>10711600</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>10927100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>10615100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>11807400</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>712900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>556800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>578300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>717700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>560500</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>582200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>218600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>138800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>-575000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>698900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>589200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>691400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>490700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>621600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>676600</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>674900</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>33400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-153600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>22000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>8400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>12200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>12300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>5900</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1029500</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>1144700</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>856100</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>869100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>201400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>830500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>922300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>681200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>809000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>833600</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>845100</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>85100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>60300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>56000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>85600</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60700</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>61400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>53100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>77800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>80200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>75900</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>70600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>62000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>60600</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
         <v>51600</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
         <v>56300</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>661200</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>521200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>521200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>665600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>524700</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>524700</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>160500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>89800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>-806400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>627800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>535300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>629200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>440800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>573300</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>623800</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>624500</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>178800</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>137800</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>146500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>138800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>147400</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>51700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>54100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>-65400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>181800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>154300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>180600</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>126300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>147000</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>191900</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>201900</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>482500</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>383400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>374800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>485700</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>385900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>377300</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>108800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>35700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>-741100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>446000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>381000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="3">
         <v>448600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="3">
         <v>314600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="3">
         <v>426400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="3">
         <v>432000</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="3">
         <v>422600</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>473800</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>385500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>362900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>477000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>388100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>365300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>114200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>33700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>-719300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>426800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>368700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
         <v>435400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W27" s="3">
         <v>309000</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="3">
         <v>417400</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="3">
         <v>420700</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="3">
         <v>408500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-33400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>153600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-22000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>-8400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>-12200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>473800</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>385500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>362900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>477000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>388100</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>365300</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>114200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>33700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>-719300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>426800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>368700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="3">
         <v>435400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="3">
         <v>309000</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="3">
         <v>417400</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="3">
         <v>420700</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="3">
         <v>408500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>473800</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>385500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>362900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>477000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>388100</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>365300</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>114200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>33700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>-719300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>426800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>368700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" s="3">
         <v>435400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3">
         <v>309000</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="3">
         <v>417400</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="3">
         <v>420700</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="3">
         <v>408500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2202300</v>
+        <v>2217000</v>
       </c>
       <c r="E41" s="3">
-        <v>2908700</v>
+        <v>2928200</v>
       </c>
       <c r="F41" s="3">
-        <v>2336900</v>
+        <v>2352500</v>
       </c>
       <c r="G41" s="3">
-        <v>3456800</v>
+        <v>3480000</v>
       </c>
       <c r="H41" s="3">
-        <v>2004100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1801700</v>
+        <v>2017500</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3222,73 +3309,76 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1505100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1723600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1824200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1441000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1216200</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1792900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1472000</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>691400</v>
+        <v>696000</v>
       </c>
       <c r="E42" s="3">
-        <v>625700</v>
+        <v>629900</v>
       </c>
       <c r="F42" s="3">
-        <v>526600</v>
+        <v>530100</v>
       </c>
       <c r="G42" s="3">
-        <v>396300</v>
+        <v>398900</v>
       </c>
       <c r="H42" s="3">
-        <v>417800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>424300</v>
+        <v>420600</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3308,73 +3398,76 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>465200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>529200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>553800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>444100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>526200</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>507100</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>563400</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6271900</v>
+        <v>6313800</v>
       </c>
       <c r="E43" s="3">
-        <v>5641900</v>
+        <v>5679600</v>
       </c>
       <c r="F43" s="3">
-        <v>5703300</v>
+        <v>5741400</v>
       </c>
       <c r="G43" s="3">
-        <v>4769600</v>
+        <v>4801500</v>
       </c>
       <c r="H43" s="3">
-        <v>4996800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4504700</v>
+        <v>5030200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3394,73 +3487,76 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6273300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>5819900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>6270500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>4759400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>5479800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>4751600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>6121400</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>376900</v>
+        <v>379400</v>
       </c>
       <c r="E44" s="3">
-        <v>379100</v>
+        <v>381600</v>
       </c>
       <c r="F44" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="G44" s="3">
-        <v>275700</v>
+        <v>277500</v>
       </c>
       <c r="H44" s="3">
-        <v>263800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>278900</v>
+        <v>265600</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3480,73 +3576,76 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>337600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>360100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>346900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>310100</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>314200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>288400</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>327500</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1393500</v>
+        <v>1402800</v>
       </c>
       <c r="E45" s="3">
-        <v>1359000</v>
+        <v>1368100</v>
       </c>
       <c r="F45" s="3">
-        <v>1436600</v>
+        <v>1446200</v>
       </c>
       <c r="G45" s="3">
-        <v>1474300</v>
+        <v>1484100</v>
       </c>
       <c r="H45" s="3">
-        <v>1244900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1199700</v>
+        <v>1253200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3566,73 +3665,76 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1129100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1381800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1252400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1170700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1088300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1027700</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1014200</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10935900</v>
+        <v>11009000</v>
       </c>
       <c r="E46" s="3">
-        <v>10914400</v>
+        <v>10987400</v>
       </c>
       <c r="F46" s="3">
-        <v>10327500</v>
+        <v>10396500</v>
       </c>
       <c r="G46" s="3">
-        <v>10372700</v>
+        <v>10442100</v>
       </c>
       <c r="H46" s="3">
-        <v>8927500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>8209200</v>
+        <v>8987200</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3652,73 +3754,76 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9710300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>9814600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>10247800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>8125400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>8624700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>8367800</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>9498500</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2037500</v>
+        <v>2051100</v>
       </c>
       <c r="E47" s="3">
-        <v>1900700</v>
+        <v>1913400</v>
       </c>
       <c r="F47" s="3">
-        <v>1658400</v>
+        <v>1669500</v>
       </c>
       <c r="G47" s="3">
-        <v>1461400</v>
+        <v>1471100</v>
       </c>
       <c r="H47" s="3">
-        <v>1468900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1331000</v>
+        <v>1478700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3738,73 +3843,76 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1849500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2066600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>1876800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>920400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>884100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>896500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>934400</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1457000</v>
+        <v>1466800</v>
       </c>
       <c r="E48" s="3">
-        <v>1513000</v>
+        <v>1523200</v>
       </c>
       <c r="F48" s="3">
-        <v>1479700</v>
+        <v>1489600</v>
       </c>
       <c r="G48" s="3">
-        <v>1468900</v>
+        <v>1478700</v>
       </c>
       <c r="H48" s="3">
-        <v>1884600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2032100</v>
+        <v>1897200</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3824,73 +3932,76 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2358700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>837900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>821800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>685600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>699000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>662000</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>734800</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7481200</v>
+        <v>7531200</v>
       </c>
       <c r="E49" s="3">
-        <v>7849500</v>
+        <v>7902000</v>
       </c>
       <c r="F49" s="3">
-        <v>7311100</v>
+        <v>7360000</v>
       </c>
       <c r="G49" s="3">
-        <v>6937400</v>
+        <v>6983800</v>
       </c>
       <c r="H49" s="3">
-        <v>6937400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6932000</v>
+        <v>6983800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -3910,53 +4021,56 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7980500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>8524700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>8070800</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>7053200</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>7112300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>6528900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>7231800</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,28 +4244,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="E52" s="3">
-        <v>351100</v>
+        <v>353400</v>
       </c>
       <c r="F52" s="3">
-        <v>387700</v>
+        <v>390300</v>
       </c>
       <c r="G52" s="3">
-        <v>211100</v>
+        <v>212500</v>
       </c>
       <c r="H52" s="3">
-        <v>226100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>183100</v>
+        <v>227700</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4168,53 +4288,56 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>173900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>153100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>172300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>139600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>259200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>233400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>390900</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,28 +4422,31 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22152900</v>
+        <v>22301000</v>
       </c>
       <c r="E54" s="3">
-        <v>22528700</v>
+        <v>22679400</v>
       </c>
       <c r="F54" s="3">
-        <v>21164300</v>
+        <v>21305800</v>
       </c>
       <c r="G54" s="3">
-        <v>20451400</v>
+        <v>20588100</v>
       </c>
       <c r="H54" s="3">
-        <v>19444500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>18687400</v>
+        <v>19574500</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4340,53 +4466,56 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>22072800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>21396900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>21189500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>16924100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>17579300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>16688500</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>18790400</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2980900</v>
+        <v>3000800</v>
       </c>
       <c r="E57" s="3">
-        <v>2915200</v>
+        <v>2934700</v>
       </c>
       <c r="F57" s="3">
-        <v>2526400</v>
+        <v>2543300</v>
       </c>
       <c r="G57" s="3">
-        <v>2345500</v>
+        <v>2361200</v>
       </c>
       <c r="H57" s="3">
-        <v>2115000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4329100</v>
+        <v>2129200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4490,73 +4621,76 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5469400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>5992700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>5415200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>4676300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4558600</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>4435200</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>4918300</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="E58" s="3">
-        <v>244500</v>
+        <v>246100</v>
       </c>
       <c r="F58" s="3">
-        <v>257400</v>
+        <v>259100</v>
       </c>
       <c r="G58" s="3">
-        <v>880900</v>
+        <v>886800</v>
       </c>
       <c r="H58" s="3">
-        <v>944400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>277800</v>
+        <v>950800</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4576,73 +4710,76 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>265800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>1506000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>496200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1318300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>601400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>845100</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6803900</v>
+        <v>6849300</v>
       </c>
       <c r="E59" s="3">
-        <v>6825400</v>
+        <v>6871000</v>
       </c>
       <c r="F59" s="3">
-        <v>6799500</v>
+        <v>6845000</v>
       </c>
       <c r="G59" s="3">
-        <v>6307400</v>
+        <v>6349600</v>
       </c>
       <c r="H59" s="3">
-        <v>6509900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3733600</v>
+        <v>6553400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4662,73 +4799,76 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3881800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>3844000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>3910400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>3269600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3474800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3287400</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>3824300</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10590200</v>
+        <v>10661000</v>
       </c>
       <c r="E60" s="3">
-        <v>9985000</v>
+        <v>10051800</v>
       </c>
       <c r="F60" s="3">
-        <v>9583300</v>
+        <v>9647400</v>
       </c>
       <c r="G60" s="3">
-        <v>9533800</v>
+        <v>9597500</v>
       </c>
       <c r="H60" s="3">
-        <v>9569300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8340600</v>
+        <v>9633300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4748,73 +4888,76 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10551400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>10102500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>10831600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>8442100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>9351800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>8324000</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>9587700</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6296600</v>
+        <v>6338700</v>
       </c>
       <c r="E61" s="3">
-        <v>6963200</v>
+        <v>7009800</v>
       </c>
       <c r="F61" s="3">
-        <v>6822200</v>
+        <v>6867800</v>
       </c>
       <c r="G61" s="3">
-        <v>6692900</v>
+        <v>6737700</v>
       </c>
       <c r="H61" s="3">
-        <v>5831400</v>
+        <v>5870400</v>
       </c>
       <c r="I61" s="3">
-        <v>6570200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4835,72 +4978,75 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>5750500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>4779900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>4275200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3917600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3340200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>3378300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>3613000</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>850800</v>
+        <v>856400</v>
       </c>
       <c r="E62" s="3">
-        <v>815200</v>
+        <v>820700</v>
       </c>
       <c r="F62" s="3">
-        <v>855100</v>
+        <v>860800</v>
       </c>
       <c r="G62" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="H62" s="3">
-        <v>886300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>790400</v>
+        <v>892200</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4920,53 +5066,56 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1089600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1004500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1245200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>878300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1098400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>980600</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1348700</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,28 +5378,31 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17741900</v>
+        <v>17860500</v>
       </c>
       <c r="E66" s="3">
-        <v>17774200</v>
+        <v>17893100</v>
       </c>
       <c r="F66" s="3">
-        <v>17271300</v>
+        <v>17386800</v>
       </c>
       <c r="G66" s="3">
-        <v>17039800</v>
+        <v>17153700</v>
       </c>
       <c r="H66" s="3">
-        <v>16303200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>15717400</v>
+        <v>16412200</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5264,53 +5422,56 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>17445700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>15938300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>16407100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>13287900</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>13828500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>12721100</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>14595200</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4369000</v>
+        <v>4398200</v>
       </c>
       <c r="E72" s="3">
-        <v>4299000</v>
+        <v>4327700</v>
       </c>
       <c r="F72" s="3">
-        <v>3950100</v>
+        <v>3976500</v>
       </c>
       <c r="G72" s="3">
-        <v>3720700</v>
+        <v>3745600</v>
       </c>
       <c r="H72" s="3">
-        <v>3599000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3405200</v>
+        <v>3623100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5726,53 +5900,56 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>4546900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>5338500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>5132900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>4203300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3846200</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>3876500</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>3539000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,28 +6212,31 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4411000</v>
+        <v>4440500</v>
       </c>
       <c r="E76" s="3">
-        <v>4754500</v>
+        <v>4786300</v>
       </c>
       <c r="F76" s="3">
-        <v>3893000</v>
+        <v>3919000</v>
       </c>
       <c r="G76" s="3">
-        <v>3411600</v>
+        <v>3434400</v>
       </c>
       <c r="H76" s="3">
-        <v>3141300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2970100</v>
+        <v>3162300</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6070,53 +6256,56 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4627100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>5458600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>4782400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>3636300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3750800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>3967400</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>4195200</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>473800</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>385500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <v>362900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>477000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
+        <v>388100</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
+        <v>365300</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>114200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>33700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>-719300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>426800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>368700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" s="3">
         <v>435400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W81" s="3">
         <v>309000</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y81" s="3">
         <v>417400</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA81" s="3">
         <v>420700</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="3">
         <v>408500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>283200</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>563200</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>278900</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>647200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>930000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>219300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>222500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>178300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>175000</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>158200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>164300</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>320900</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>1114600</v>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>280000</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1056400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>653900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1216400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>329000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1061100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>196300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1082700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>113900</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7068,70 +7289,73 @@
         <v>-162000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-236000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-413100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-241300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-242800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-166100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-185100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-169000</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-300500</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-415700</v>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-270300</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-326300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-446300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-439800</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-538300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-199400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-920000</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-366900</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-334500</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,25 +7653,26 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-379100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-316600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-316600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7456,11 +7690,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-441100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7474,11 +7708,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-482100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7486,11 +7720,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-461100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7498,16 +7732,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-421400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-563200</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1194300</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>-1069400</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>849700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>205500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-920000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>410300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-519500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>139100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-157100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>542300</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-107700</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>156200</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>58200</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>47400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-127700</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-17100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>86100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-120700</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-23600</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-202000</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>48100</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD101" s="3">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-650400</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>-339200</v>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1001500</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>1627200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>285400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-160500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>287100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>221500</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-608100</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>356800</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>369800</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="3">
         <v>186600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SDXAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="92">
   <si>
     <t>SDXAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6532800</v>
+        <v>11448900</v>
       </c>
       <c r="E8" s="3">
-        <v>13101300</v>
+        <v>6538200</v>
       </c>
       <c r="F8" s="3">
-        <v>6862400</v>
+        <v>13112200</v>
       </c>
       <c r="G8" s="3">
-        <v>11776600</v>
+        <v>6868100</v>
       </c>
       <c r="H8" s="3">
-        <v>5987500</v>
+        <v>10851100</v>
       </c>
       <c r="I8" s="3">
-        <v>11125000</v>
+        <v>5992500</v>
       </c>
       <c r="J8" s="3">
+        <v>11134300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5706700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9512300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4744100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8773800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4420500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7918100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4266500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13201400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7093200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13363400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6684300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13212000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6708200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11202300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5748000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11548600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5960000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11291700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6002600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>12482300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6398400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>11326100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11194400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10077800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9531400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="D9" s="3">
+        <v>10406200</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11203700</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9781300</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9539300</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>8174700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7569200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7138700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>11250400</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>11440200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>11264600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>9540900</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>9768000</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>9561600</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>10484500</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3">
         <v>9595900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1906900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1698800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1593600</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1908500</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1069800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>1337500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>1204500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>779500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>1951100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>1923200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>1947400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>1661400</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1780600</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1730100</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1997800</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="3">
         <v>1730200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,70 +1282,73 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>9800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>88300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>110200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>438000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>41800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>41600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>27500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
@@ -1339,83 +1359,86 @@
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
         <v>12900</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>23900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>28200</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>21700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>12900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>21400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>4200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>22600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>51400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>51400</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12383700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11216100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10542900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>11248200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12394000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10552700</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10551600</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>9293600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>8634900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>8493100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>12502500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>12774200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>12520600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>10711600</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>10927100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>10615100</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>11807400</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="3">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="3">
         <v>10769700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>717700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>560500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>582200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>200700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>718300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>298400</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>582600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>218600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>138800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>-575000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>698900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>589200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>691400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>490700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>621600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>676600</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>674900</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="3">
         <v>556400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,97 +1717,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>33600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>24900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-153600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>22000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>8400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>12200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>12300</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>5900</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1799,338 +1836,350 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>869100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>201400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>830500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>922300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>681200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>809000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>833600</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>845100</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>85600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="D22" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>85700</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60800</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>56400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>61400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>53100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>77800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>80200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>75900</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>70600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>62000</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
         <v>60600</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>51600</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
         <v>56300</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>665600</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>524700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>524700</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>666200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>262600</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>525100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>160500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>89800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>-806400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>627800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>535300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>629200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>440800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>573300</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>623800</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>624500</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>180000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>138800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>147400</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>180100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>76000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>51700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>54100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>-65400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>181800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>154300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>180600</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>126300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>147000</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>191900</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>201900</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="3">
         <v>150200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>485700</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>385900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>377300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>486100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>186600</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>377600</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>108800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>35700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>-741100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>446000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>381000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
         <v>448600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X26" s="3">
         <v>314600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="3">
         <v>426400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="3">
         <v>432000</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="3">
         <v>422600</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="3">
+      <c r="AE26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="3">
         <v>335700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>477000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>388100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>365300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>477400</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>192000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>114200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>33700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>-719300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>426800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>368700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V27" s="3">
         <v>435400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="3">
         <v>309000</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3">
         <v>417400</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="3">
         <v>420700</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="3">
         <v>408500</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="3">
+      <c r="AE27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,31 +2543,34 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>253900</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>196400</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>-33600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>153600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-22000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>-8400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>-12200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-12300</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1100</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE32" s="3">
+      <c r="AE32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF32" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>477000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>388100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>365300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>477400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>388400</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>114200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>33700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>-719300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>426800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>368700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="3">
         <v>435400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="3">
         <v>309000</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3">
         <v>417400</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="3">
         <v>420700</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="3">
         <v>408500</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF33" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>477000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
-        <v>388100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>365300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>477400</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>388400</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>114200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>33700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>-719300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>426800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>368700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="3">
         <v>435400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="3">
         <v>309000</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3">
         <v>417400</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="3">
         <v>420700</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="3">
         <v>408500</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="3">
+      <c r="AE35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,28 +3354,29 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2217000</v>
+        <v>2160200</v>
       </c>
       <c r="E41" s="3">
-        <v>2928200</v>
+        <v>2218800</v>
       </c>
       <c r="F41" s="3">
-        <v>2352500</v>
+        <v>2930600</v>
       </c>
       <c r="G41" s="3">
-        <v>3480000</v>
+        <v>2354500</v>
       </c>
       <c r="H41" s="3">
-        <v>2017500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+        <v>3482900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2019200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -3312,73 +3399,76 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1505100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1723600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1824200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1441000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1216200</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1792900</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>1472000</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE41" s="3">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF41" s="3">
         <v>1199600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>696000</v>
+        <v>117200</v>
       </c>
       <c r="E42" s="3">
-        <v>629900</v>
+        <v>696600</v>
       </c>
       <c r="F42" s="3">
-        <v>530100</v>
+        <v>630400</v>
       </c>
       <c r="G42" s="3">
-        <v>398900</v>
+        <v>530600</v>
       </c>
       <c r="H42" s="3">
-        <v>420600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>399300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>421000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -3401,73 +3491,76 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>465200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>529200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>553800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>444100</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>526200</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>507100</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>563400</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="3">
         <v>466000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6313800</v>
+        <v>3955900</v>
       </c>
       <c r="E43" s="3">
-        <v>5679600</v>
+        <v>6319000</v>
       </c>
       <c r="F43" s="3">
-        <v>5741400</v>
+        <v>5684300</v>
       </c>
       <c r="G43" s="3">
-        <v>4801500</v>
+        <v>5746200</v>
       </c>
       <c r="H43" s="3">
-        <v>5030200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
+        <v>4805500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5034400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
@@ -3490,73 +3583,76 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>6273300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>5819900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>6270500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>4759400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>5479800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>4751600</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>6121400</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="3">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="3">
         <v>4899500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>379400</v>
+        <v>351500</v>
       </c>
       <c r="E44" s="3">
-        <v>381600</v>
+        <v>379800</v>
       </c>
       <c r="F44" s="3">
-        <v>326300</v>
+        <v>381900</v>
       </c>
       <c r="G44" s="3">
-        <v>277500</v>
+        <v>326600</v>
       </c>
       <c r="H44" s="3">
-        <v>265600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
+        <v>277800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>265800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
@@ -3579,73 +3675,76 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>337600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>360100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>346900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>310100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>314200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>288400</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>327500</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE44" s="3">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF44" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1402800</v>
+        <v>5771100</v>
       </c>
       <c r="E45" s="3">
-        <v>1368100</v>
+        <v>1404000</v>
       </c>
       <c r="F45" s="3">
-        <v>1446200</v>
+        <v>1369300</v>
       </c>
       <c r="G45" s="3">
-        <v>1484100</v>
+        <v>1447400</v>
       </c>
       <c r="H45" s="3">
-        <v>1253200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1485400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1254300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -3668,73 +3767,76 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1129100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1381800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1252400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1170700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1088300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1027700</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
         <v>1014200</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE45" s="3">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF45" s="3">
         <v>937900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11009000</v>
+        <v>12356000</v>
       </c>
       <c r="E46" s="3">
-        <v>10987400</v>
+        <v>11018200</v>
       </c>
       <c r="F46" s="3">
-        <v>10396500</v>
+        <v>10996500</v>
       </c>
       <c r="G46" s="3">
-        <v>10442100</v>
+        <v>10405200</v>
       </c>
       <c r="H46" s="3">
-        <v>8987200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
+        <v>10450700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8994700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -3757,73 +3859,76 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>9710300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>9814600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>10247800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>8125400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>8624700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>8367800</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>9498500</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="3">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF46" s="3">
         <v>7817600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2051100</v>
+        <v>1979000</v>
       </c>
       <c r="E47" s="3">
-        <v>1913400</v>
+        <v>2052800</v>
       </c>
       <c r="F47" s="3">
-        <v>1669500</v>
+        <v>1915000</v>
       </c>
       <c r="G47" s="3">
-        <v>1471100</v>
+        <v>1670900</v>
       </c>
       <c r="H47" s="3">
-        <v>1478700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+        <v>1472300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1479900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -3846,73 +3951,76 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1849500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2066600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>1876800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>920400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>884100</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>896500</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>934400</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE47" s="3">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF47" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1466800</v>
+        <v>1407200</v>
       </c>
       <c r="E48" s="3">
-        <v>1523200</v>
+        <v>1468000</v>
       </c>
       <c r="F48" s="3">
-        <v>1489600</v>
+        <v>1524400</v>
       </c>
       <c r="G48" s="3">
-        <v>1478700</v>
+        <v>1490800</v>
       </c>
       <c r="H48" s="3">
-        <v>1897200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>1479900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1898800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -3935,73 +4043,76 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>2358700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>837900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>821800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>685600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>699000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>662000</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>734800</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE48" s="3">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF48" s="3">
         <v>709000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7531200</v>
+        <v>6527400</v>
       </c>
       <c r="E49" s="3">
-        <v>7902000</v>
+        <v>7537500</v>
       </c>
       <c r="F49" s="3">
-        <v>7360000</v>
+        <v>7908600</v>
       </c>
       <c r="G49" s="3">
-        <v>6983800</v>
+        <v>7366100</v>
       </c>
       <c r="H49" s="3">
-        <v>6983800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+        <v>6989600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6989600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -4024,53 +4135,56 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>7980500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>8524700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>8070800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>7053200</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>7112300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>6528900</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>7231800</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE49" s="3">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF49" s="3">
         <v>6802200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,28 +4364,31 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>242800</v>
+        <v>291900</v>
       </c>
       <c r="E52" s="3">
-        <v>353400</v>
+        <v>243000</v>
       </c>
       <c r="F52" s="3">
-        <v>390300</v>
+        <v>353700</v>
       </c>
       <c r="G52" s="3">
-        <v>212500</v>
+        <v>390600</v>
       </c>
       <c r="H52" s="3">
-        <v>227700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>212700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>227900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4291,53 +4411,56 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>173900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>153100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>172300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>139600</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>259200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>233400</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>390900</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE52" s="3">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF52" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,28 +4548,31 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22301000</v>
+        <v>22561500</v>
       </c>
       <c r="E54" s="3">
-        <v>22679400</v>
+        <v>22319500</v>
       </c>
       <c r="F54" s="3">
-        <v>21305800</v>
+        <v>22698200</v>
       </c>
       <c r="G54" s="3">
-        <v>20588100</v>
+        <v>21323500</v>
       </c>
       <c r="H54" s="3">
-        <v>19574500</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
+        <v>20605200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>19590800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -4469,53 +4595,56 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>22072800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>21396900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>21189500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>16924100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>17579300</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>16688500</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>18790400</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE54" s="3">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF54" s="3">
         <v>16618800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,28 +4710,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000800</v>
+        <v>2714700</v>
       </c>
       <c r="E57" s="3">
-        <v>2934700</v>
+        <v>3003300</v>
       </c>
       <c r="F57" s="3">
-        <v>2543300</v>
+        <v>2937100</v>
       </c>
       <c r="G57" s="3">
-        <v>2361200</v>
+        <v>2545400</v>
       </c>
       <c r="H57" s="3">
-        <v>2129200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>2363100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2130900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -4624,73 +4755,76 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>5469400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>5992700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>5415200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>4676300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4558600</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>4435200</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>4918300</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE57" s="3">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF57" s="3">
         <v>4630700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>810900</v>
+        <v>743200</v>
       </c>
       <c r="E58" s="3">
-        <v>246100</v>
+        <v>811600</v>
       </c>
       <c r="F58" s="3">
-        <v>259100</v>
+        <v>246300</v>
       </c>
       <c r="G58" s="3">
-        <v>886800</v>
+        <v>259300</v>
       </c>
       <c r="H58" s="3">
-        <v>950800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>887500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>951500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4713,73 +4847,76 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>265800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>1506000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>496200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1318300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>601400</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>845100</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE58" s="3">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF58" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6849300</v>
+        <v>7175100</v>
       </c>
       <c r="E59" s="3">
-        <v>6871000</v>
+        <v>6855000</v>
       </c>
       <c r="F59" s="3">
-        <v>6845000</v>
+        <v>6876700</v>
       </c>
       <c r="G59" s="3">
-        <v>6349600</v>
+        <v>6850700</v>
       </c>
       <c r="H59" s="3">
-        <v>6553400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+        <v>6354800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6558800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -4802,73 +4939,76 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>3881800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>3844000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>3910400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>3269600</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3474800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>3287400</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>3824300</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE59" s="3">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF59" s="3">
         <v>3393500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10661000</v>
+        <v>10633000</v>
       </c>
       <c r="E60" s="3">
-        <v>10051800</v>
+        <v>10669900</v>
       </c>
       <c r="F60" s="3">
-        <v>9647400</v>
+        <v>10060100</v>
       </c>
       <c r="G60" s="3">
-        <v>9597500</v>
+        <v>9655400</v>
       </c>
       <c r="H60" s="3">
-        <v>9633300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
+        <v>9605500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9641300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -4891,73 +5031,76 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>10551400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>10102500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>10831600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>8442100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>9351800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>8324000</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>9587700</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE60" s="3">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF60" s="3">
         <v>8107500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6338700</v>
+        <v>6226800</v>
       </c>
       <c r="E61" s="3">
-        <v>7009800</v>
+        <v>6344000</v>
       </c>
       <c r="F61" s="3">
-        <v>6867800</v>
+        <v>7015600</v>
       </c>
       <c r="G61" s="3">
-        <v>6737700</v>
+        <v>6873500</v>
       </c>
       <c r="H61" s="3">
-        <v>5870400</v>
+        <v>6743300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5875300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4981,72 +5124,75 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>5750500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>4779900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>4275200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3917600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3340200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>3378300</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>3613000</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
         <v>2952100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>856400</v>
+        <v>760600</v>
       </c>
       <c r="E62" s="3">
-        <v>820700</v>
+        <v>857200</v>
       </c>
       <c r="F62" s="3">
-        <v>860800</v>
+        <v>821300</v>
       </c>
       <c r="G62" s="3">
-        <v>810900</v>
+        <v>861500</v>
       </c>
       <c r="H62" s="3">
-        <v>892200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>811600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>893000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -5069,53 +5215,56 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1089600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1004500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1245200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>878300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1098400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>980600</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1348700</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE62" s="3">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF62" s="3">
         <v>1213700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,28 +5536,31 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17860500</v>
+        <v>17633400</v>
       </c>
       <c r="E66" s="3">
-        <v>17893100</v>
+        <v>17875400</v>
       </c>
       <c r="F66" s="3">
-        <v>17386800</v>
+        <v>17907900</v>
       </c>
       <c r="G66" s="3">
-        <v>17153700</v>
+        <v>17401200</v>
       </c>
       <c r="H66" s="3">
-        <v>16412200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
+        <v>17168000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16425800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -5425,53 +5583,56 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>17445700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>15938300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>16407100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>13287900</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>13828500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>12721100</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>14595200</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE66" s="3">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF66" s="3">
         <v>12313300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,28 +6030,31 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4398200</v>
+        <v>4898800</v>
       </c>
       <c r="E72" s="3">
-        <v>4327700</v>
+        <v>4401800</v>
       </c>
       <c r="F72" s="3">
-        <v>3976500</v>
+        <v>4331300</v>
       </c>
       <c r="G72" s="3">
-        <v>3745600</v>
+        <v>3979800</v>
       </c>
       <c r="H72" s="3">
-        <v>3623100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
+        <v>3748700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3626100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -5903,53 +6077,56 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>4546900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>5338500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>5132900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>4203300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3846200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>3876500</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>3539000</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE72" s="3">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF72" s="3">
         <v>3530800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,28 +6398,31 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4440500</v>
+        <v>4928100</v>
       </c>
       <c r="E76" s="3">
-        <v>4786300</v>
+        <v>4444200</v>
       </c>
       <c r="F76" s="3">
-        <v>3919000</v>
+        <v>4790300</v>
       </c>
       <c r="G76" s="3">
-        <v>3434400</v>
+        <v>3922300</v>
       </c>
       <c r="H76" s="3">
-        <v>3162300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+        <v>3437300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3164900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -6259,53 +6445,56 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4627100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>5458600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>4782400</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>3636300</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3750800</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>3967400</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>4195200</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE76" s="3">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF76" s="3">
         <v>4305500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
-        <v>477000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>388100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>365300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>477400</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>388400</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>365600</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>114200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>33700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>-719300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>426800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>368700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V81" s="3">
         <v>435400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X81" s="3">
         <v>309000</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81" s="3">
         <v>417400</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB81" s="3">
         <v>420700</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="3">
         <v>408500</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE81" s="3">
+      <c r="AE81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF81" s="3">
         <v>326300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>647200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>930000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>219300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>222500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>178300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>175000</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>158200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>164300</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE83" s="3">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF83" s="3">
         <v>154900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1056400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>653900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1216400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>329000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1061100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>196300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1082700</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>113900</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE89" s="3">
+      <c r="AE89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF89" s="3">
         <v>788800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-215000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-187000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-158000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-159000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-137000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-162000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-236000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-413100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-241300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-242800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-166100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-185100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-169000</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE91" s="3">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-201900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-326300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-446300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-439800</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-538300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-199400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-920000</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-366900</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-334500</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE94" s="3">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF94" s="3">
         <v>-274700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7693,11 +7927,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-441100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7711,11 +7945,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-482100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7723,11 +7957,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-461100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7735,16 +7969,19 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-421400</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>849700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>205500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-920000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>410300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-519500</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>139100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-157100</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>542300</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE100" s="3">
+      <c r="AE100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF100" s="3">
         <v>-332200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>47400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-127700</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-17100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>86100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-120700</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-23600</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-202000</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
         <v>48100</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE101" s="3">
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF101" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>1627200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>285400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-160500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>287100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>221500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-608100</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>356800</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>369800</v>
       </c>
-      <c r="AD102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE102" s="3">
+      <c r="AE102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF102" s="3">
         <v>186600</v>
       </c>
     </row>
